--- a/Rt/STAT-SARS-CoV2-nPT-22.05.2020.xlsx
+++ b/Rt/STAT-SARS-CoV2-nPT-22.05.2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edlindemann/Documents/--- Erik Eriksen ---/-- Research --/COVID 19/GITHUB/RPT_COVID19/Rt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21A00F7-7EE3-A647-BE6D-710471572F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD70530-5694-F847-9279-ADE73D0A9708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{47C6AFC8-4B9D-1645-AE0A-12E26D4B0EBF}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="137">
   <si>
     <t>NORTE</t>
   </si>
@@ -498,12 +498,36 @@
   <si>
     <t>Média = 0.95</t>
   </si>
+  <si>
+    <t>257 (212 – 302)</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>1.1 (0.9 – 1.2)</t>
+  </si>
+  <si>
+    <t>31 (13 – -82)</t>
+  </si>
+  <si>
+    <t>0.4 (2.3e-06 – 0.76)</t>
+  </si>
+  <si>
+    <t>23.05.2020</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -682,8 +706,24 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,8 +808,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1109,6 +1161,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1118,7 +1201,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1317,6 +1400,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1324,15 +1416,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,6 +1437,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="8" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5274,16 +5405,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5740,9 +5871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8102BFC-4BE0-9C47-A2EE-5E7A02BF4DDC}">
   <dimension ref="B1:IG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P32" sqref="P32:CG32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="CB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CI36" sqref="CI36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6720,312 +6851,312 @@
       <c r="B2" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="81">
+      <c r="D2" s="78">
         <v>10</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="81">
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="78">
         <v>11</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="81">
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="78">
         <v>12</v>
       </c>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="81">
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="78">
         <v>13</v>
       </c>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="81">
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="78">
         <v>14</v>
       </c>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="81">
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="78">
         <v>15</v>
       </c>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="81">
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="79"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="78">
         <v>16</v>
       </c>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="78">
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="79"/>
+      <c r="AW2" s="79"/>
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="79"/>
+      <c r="AZ2" s="80"/>
+      <c r="BA2" s="81">
         <v>17</v>
       </c>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="79"/>
-      <c r="BD2" s="79"/>
-      <c r="BE2" s="79"/>
-      <c r="BF2" s="79"/>
-      <c r="BG2" s="80"/>
-      <c r="BH2" s="78">
+      <c r="BB2" s="82"/>
+      <c r="BC2" s="82"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="81">
         <v>18</v>
       </c>
-      <c r="BI2" s="79"/>
-      <c r="BJ2" s="79"/>
-      <c r="BK2" s="79"/>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="79"/>
-      <c r="BN2" s="80"/>
-      <c r="BO2" s="78">
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="82"/>
+      <c r="BM2" s="82"/>
+      <c r="BN2" s="83"/>
+      <c r="BO2" s="81">
         <v>19</v>
       </c>
-      <c r="BP2" s="79"/>
-      <c r="BQ2" s="79"/>
-      <c r="BR2" s="79"/>
-      <c r="BS2" s="79"/>
-      <c r="BT2" s="79"/>
-      <c r="BU2" s="80"/>
-      <c r="BV2" s="78">
+      <c r="BP2" s="82"/>
+      <c r="BQ2" s="82"/>
+      <c r="BR2" s="82"/>
+      <c r="BS2" s="82"/>
+      <c r="BT2" s="82"/>
+      <c r="BU2" s="83"/>
+      <c r="BV2" s="81">
         <v>20</v>
       </c>
-      <c r="BW2" s="79"/>
-      <c r="BX2" s="79"/>
-      <c r="BY2" s="79"/>
-      <c r="BZ2" s="79"/>
-      <c r="CA2" s="79"/>
-      <c r="CB2" s="80"/>
-      <c r="CC2" s="78">
+      <c r="BW2" s="82"/>
+      <c r="BX2" s="82"/>
+      <c r="BY2" s="82"/>
+      <c r="BZ2" s="82"/>
+      <c r="CA2" s="82"/>
+      <c r="CB2" s="83"/>
+      <c r="CC2" s="81">
         <v>21</v>
       </c>
-      <c r="CD2" s="79"/>
-      <c r="CE2" s="79"/>
-      <c r="CF2" s="79"/>
-      <c r="CG2" s="79"/>
-      <c r="CH2" s="79"/>
-      <c r="CI2" s="80"/>
-      <c r="CJ2" s="78">
+      <c r="CD2" s="82"/>
+      <c r="CE2" s="82"/>
+      <c r="CF2" s="82"/>
+      <c r="CG2" s="82"/>
+      <c r="CH2" s="82"/>
+      <c r="CI2" s="83"/>
+      <c r="CJ2" s="81">
         <v>22</v>
       </c>
-      <c r="CK2" s="79"/>
-      <c r="CL2" s="79"/>
-      <c r="CM2" s="79"/>
-      <c r="CN2" s="79"/>
-      <c r="CO2" s="79"/>
-      <c r="CP2" s="80"/>
-      <c r="CQ2" s="78">
+      <c r="CK2" s="82"/>
+      <c r="CL2" s="82"/>
+      <c r="CM2" s="82"/>
+      <c r="CN2" s="82"/>
+      <c r="CO2" s="82"/>
+      <c r="CP2" s="83"/>
+      <c r="CQ2" s="81">
         <v>23</v>
       </c>
-      <c r="CR2" s="79"/>
-      <c r="CS2" s="79"/>
-      <c r="CT2" s="79"/>
-      <c r="CU2" s="79"/>
-      <c r="CV2" s="79"/>
-      <c r="CW2" s="80"/>
-      <c r="CX2" s="78">
+      <c r="CR2" s="82"/>
+      <c r="CS2" s="82"/>
+      <c r="CT2" s="82"/>
+      <c r="CU2" s="82"/>
+      <c r="CV2" s="82"/>
+      <c r="CW2" s="83"/>
+      <c r="CX2" s="81">
         <v>24</v>
       </c>
-      <c r="CY2" s="79"/>
-      <c r="CZ2" s="79"/>
-      <c r="DA2" s="79"/>
-      <c r="DB2" s="79"/>
-      <c r="DC2" s="79"/>
-      <c r="DD2" s="80"/>
-      <c r="DE2" s="78">
+      <c r="CY2" s="82"/>
+      <c r="CZ2" s="82"/>
+      <c r="DA2" s="82"/>
+      <c r="DB2" s="82"/>
+      <c r="DC2" s="82"/>
+      <c r="DD2" s="83"/>
+      <c r="DE2" s="81">
         <v>25</v>
       </c>
-      <c r="DF2" s="79"/>
-      <c r="DG2" s="79"/>
-      <c r="DH2" s="79"/>
-      <c r="DI2" s="79"/>
-      <c r="DJ2" s="79"/>
-      <c r="DK2" s="80"/>
-      <c r="DL2" s="78">
+      <c r="DF2" s="82"/>
+      <c r="DG2" s="82"/>
+      <c r="DH2" s="82"/>
+      <c r="DI2" s="82"/>
+      <c r="DJ2" s="82"/>
+      <c r="DK2" s="83"/>
+      <c r="DL2" s="81">
         <v>26</v>
       </c>
-      <c r="DM2" s="79"/>
-      <c r="DN2" s="79"/>
-      <c r="DO2" s="79"/>
-      <c r="DP2" s="79"/>
-      <c r="DQ2" s="79"/>
-      <c r="DR2" s="80"/>
-      <c r="DS2" s="78">
+      <c r="DM2" s="82"/>
+      <c r="DN2" s="82"/>
+      <c r="DO2" s="82"/>
+      <c r="DP2" s="82"/>
+      <c r="DQ2" s="82"/>
+      <c r="DR2" s="83"/>
+      <c r="DS2" s="81">
         <v>27</v>
       </c>
-      <c r="DT2" s="79"/>
-      <c r="DU2" s="79"/>
-      <c r="DV2" s="79"/>
-      <c r="DW2" s="79"/>
-      <c r="DX2" s="79"/>
-      <c r="DY2" s="80"/>
-      <c r="DZ2" s="78">
+      <c r="DT2" s="82"/>
+      <c r="DU2" s="82"/>
+      <c r="DV2" s="82"/>
+      <c r="DW2" s="82"/>
+      <c r="DX2" s="82"/>
+      <c r="DY2" s="83"/>
+      <c r="DZ2" s="81">
         <v>28</v>
       </c>
-      <c r="EA2" s="79"/>
-      <c r="EB2" s="79"/>
-      <c r="EC2" s="79"/>
-      <c r="ED2" s="79"/>
-      <c r="EE2" s="79"/>
-      <c r="EF2" s="80"/>
-      <c r="EG2" s="78">
+      <c r="EA2" s="82"/>
+      <c r="EB2" s="82"/>
+      <c r="EC2" s="82"/>
+      <c r="ED2" s="82"/>
+      <c r="EE2" s="82"/>
+      <c r="EF2" s="83"/>
+      <c r="EG2" s="81">
         <v>29</v>
       </c>
-      <c r="EH2" s="79"/>
-      <c r="EI2" s="79"/>
-      <c r="EJ2" s="79"/>
-      <c r="EK2" s="79"/>
-      <c r="EL2" s="79"/>
-      <c r="EM2" s="80"/>
-      <c r="EN2" s="78">
+      <c r="EH2" s="82"/>
+      <c r="EI2" s="82"/>
+      <c r="EJ2" s="82"/>
+      <c r="EK2" s="82"/>
+      <c r="EL2" s="82"/>
+      <c r="EM2" s="83"/>
+      <c r="EN2" s="81">
         <v>30</v>
       </c>
-      <c r="EO2" s="79"/>
-      <c r="EP2" s="79"/>
-      <c r="EQ2" s="79"/>
-      <c r="ER2" s="79"/>
-      <c r="ES2" s="79"/>
-      <c r="ET2" s="80"/>
-      <c r="EU2" s="78">
+      <c r="EO2" s="82"/>
+      <c r="EP2" s="82"/>
+      <c r="EQ2" s="82"/>
+      <c r="ER2" s="82"/>
+      <c r="ES2" s="82"/>
+      <c r="ET2" s="83"/>
+      <c r="EU2" s="81">
         <v>31</v>
       </c>
-      <c r="EV2" s="79"/>
-      <c r="EW2" s="79"/>
-      <c r="EX2" s="79"/>
-      <c r="EY2" s="79"/>
-      <c r="EZ2" s="79"/>
-      <c r="FA2" s="80"/>
-      <c r="FB2" s="78">
+      <c r="EV2" s="82"/>
+      <c r="EW2" s="82"/>
+      <c r="EX2" s="82"/>
+      <c r="EY2" s="82"/>
+      <c r="EZ2" s="82"/>
+      <c r="FA2" s="83"/>
+      <c r="FB2" s="81">
         <v>32</v>
       </c>
-      <c r="FC2" s="79"/>
-      <c r="FD2" s="79"/>
-      <c r="FE2" s="79"/>
-      <c r="FF2" s="79"/>
-      <c r="FG2" s="79"/>
-      <c r="FH2" s="80"/>
-      <c r="FI2" s="78">
+      <c r="FC2" s="82"/>
+      <c r="FD2" s="82"/>
+      <c r="FE2" s="82"/>
+      <c r="FF2" s="82"/>
+      <c r="FG2" s="82"/>
+      <c r="FH2" s="83"/>
+      <c r="FI2" s="81">
         <v>33</v>
       </c>
-      <c r="FJ2" s="79"/>
-      <c r="FK2" s="79"/>
-      <c r="FL2" s="79"/>
-      <c r="FM2" s="79"/>
-      <c r="FN2" s="79"/>
-      <c r="FO2" s="80"/>
-      <c r="FP2" s="78">
+      <c r="FJ2" s="82"/>
+      <c r="FK2" s="82"/>
+      <c r="FL2" s="82"/>
+      <c r="FM2" s="82"/>
+      <c r="FN2" s="82"/>
+      <c r="FO2" s="83"/>
+      <c r="FP2" s="81">
         <v>34</v>
       </c>
-      <c r="FQ2" s="79"/>
-      <c r="FR2" s="79"/>
-      <c r="FS2" s="79"/>
-      <c r="FT2" s="79"/>
-      <c r="FU2" s="79"/>
-      <c r="FV2" s="80"/>
-      <c r="FW2" s="78">
+      <c r="FQ2" s="82"/>
+      <c r="FR2" s="82"/>
+      <c r="FS2" s="82"/>
+      <c r="FT2" s="82"/>
+      <c r="FU2" s="82"/>
+      <c r="FV2" s="83"/>
+      <c r="FW2" s="81">
         <v>35</v>
       </c>
-      <c r="FX2" s="79"/>
-      <c r="FY2" s="79"/>
-      <c r="FZ2" s="79"/>
-      <c r="GA2" s="79"/>
-      <c r="GB2" s="79"/>
-      <c r="GC2" s="80"/>
-      <c r="GD2" s="78">
+      <c r="FX2" s="82"/>
+      <c r="FY2" s="82"/>
+      <c r="FZ2" s="82"/>
+      <c r="GA2" s="82"/>
+      <c r="GB2" s="82"/>
+      <c r="GC2" s="83"/>
+      <c r="GD2" s="81">
         <v>36</v>
       </c>
-      <c r="GE2" s="79"/>
-      <c r="GF2" s="79"/>
-      <c r="GG2" s="79"/>
-      <c r="GH2" s="79"/>
-      <c r="GI2" s="79"/>
-      <c r="GJ2" s="80"/>
-      <c r="GK2" s="78">
+      <c r="GE2" s="82"/>
+      <c r="GF2" s="82"/>
+      <c r="GG2" s="82"/>
+      <c r="GH2" s="82"/>
+      <c r="GI2" s="82"/>
+      <c r="GJ2" s="83"/>
+      <c r="GK2" s="81">
         <v>37</v>
       </c>
-      <c r="GL2" s="79"/>
-      <c r="GM2" s="79"/>
-      <c r="GN2" s="79"/>
-      <c r="GO2" s="79"/>
-      <c r="GP2" s="79"/>
-      <c r="GQ2" s="80"/>
-      <c r="GR2" s="78">
+      <c r="GL2" s="82"/>
+      <c r="GM2" s="82"/>
+      <c r="GN2" s="82"/>
+      <c r="GO2" s="82"/>
+      <c r="GP2" s="82"/>
+      <c r="GQ2" s="83"/>
+      <c r="GR2" s="81">
         <v>38</v>
       </c>
-      <c r="GS2" s="79"/>
-      <c r="GT2" s="79"/>
-      <c r="GU2" s="79"/>
-      <c r="GV2" s="79"/>
-      <c r="GW2" s="79"/>
-      <c r="GX2" s="80"/>
-      <c r="GY2" s="78">
+      <c r="GS2" s="82"/>
+      <c r="GT2" s="82"/>
+      <c r="GU2" s="82"/>
+      <c r="GV2" s="82"/>
+      <c r="GW2" s="82"/>
+      <c r="GX2" s="83"/>
+      <c r="GY2" s="81">
         <v>39</v>
       </c>
-      <c r="GZ2" s="79"/>
-      <c r="HA2" s="79"/>
-      <c r="HB2" s="79"/>
-      <c r="HC2" s="79"/>
-      <c r="HD2" s="79"/>
-      <c r="HE2" s="80"/>
-      <c r="HF2" s="78">
+      <c r="GZ2" s="82"/>
+      <c r="HA2" s="82"/>
+      <c r="HB2" s="82"/>
+      <c r="HC2" s="82"/>
+      <c r="HD2" s="82"/>
+      <c r="HE2" s="83"/>
+      <c r="HF2" s="81">
         <v>40</v>
       </c>
-      <c r="HG2" s="79"/>
-      <c r="HH2" s="79"/>
-      <c r="HI2" s="79"/>
-      <c r="HJ2" s="79"/>
-      <c r="HK2" s="79"/>
-      <c r="HL2" s="80"/>
-      <c r="HM2" s="78">
+      <c r="HG2" s="82"/>
+      <c r="HH2" s="82"/>
+      <c r="HI2" s="82"/>
+      <c r="HJ2" s="82"/>
+      <c r="HK2" s="82"/>
+      <c r="HL2" s="83"/>
+      <c r="HM2" s="81">
         <v>41</v>
       </c>
-      <c r="HN2" s="79"/>
-      <c r="HO2" s="79"/>
-      <c r="HP2" s="79"/>
-      <c r="HQ2" s="79"/>
-      <c r="HR2" s="79"/>
-      <c r="HS2" s="80"/>
-      <c r="HT2" s="78">
+      <c r="HN2" s="82"/>
+      <c r="HO2" s="82"/>
+      <c r="HP2" s="82"/>
+      <c r="HQ2" s="82"/>
+      <c r="HR2" s="82"/>
+      <c r="HS2" s="83"/>
+      <c r="HT2" s="81">
         <v>42</v>
       </c>
-      <c r="HU2" s="79"/>
-      <c r="HV2" s="79"/>
-      <c r="HW2" s="79"/>
-      <c r="HX2" s="79"/>
-      <c r="HY2" s="79"/>
-      <c r="HZ2" s="80"/>
-      <c r="IA2" s="78">
+      <c r="HU2" s="82"/>
+      <c r="HV2" s="82"/>
+      <c r="HW2" s="82"/>
+      <c r="HX2" s="82"/>
+      <c r="HY2" s="82"/>
+      <c r="HZ2" s="83"/>
+      <c r="IA2" s="81">
         <v>43</v>
       </c>
-      <c r="IB2" s="79"/>
-      <c r="IC2" s="79"/>
-      <c r="ID2" s="79"/>
-      <c r="IE2" s="79"/>
-      <c r="IF2" s="79"/>
-      <c r="IG2" s="80"/>
+      <c r="IB2" s="82"/>
+      <c r="IC2" s="82"/>
+      <c r="ID2" s="82"/>
+      <c r="IE2" s="82"/>
+      <c r="IF2" s="82"/>
+      <c r="IG2" s="83"/>
     </row>
     <row r="3" spans="2:241">
       <c r="B3" s="52" t="s">
@@ -8312,7 +8443,9 @@
       <c r="CG5" s="59">
         <v>273714</v>
       </c>
-      <c r="CH5" s="59"/>
+      <c r="CH5" s="59">
+        <v>275805</v>
+      </c>
       <c r="CI5" s="59"/>
       <c r="CJ5" s="59"/>
       <c r="CK5" s="59"/>
@@ -8786,11 +8919,11 @@
       </c>
       <c r="CH6" s="44">
         <f t="shared" si="326"/>
+        <v>7.6393607926521501E-3</v>
+      </c>
+      <c r="CI6" s="44">
+        <f t="shared" si="326"/>
         <v>-1</v>
-      </c>
-      <c r="CI6" s="44" t="e">
-        <f t="shared" si="326"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="CJ6" s="44" t="e">
         <f t="shared" si="326"/>
@@ -9740,11 +9873,11 @@
       </c>
       <c r="CH7" s="43">
         <f t="shared" si="471"/>
-        <v>-273714</v>
+        <v>2091</v>
       </c>
       <c r="CI7" s="43">
         <f t="shared" si="471"/>
-        <v>0</v>
+        <v>-275805</v>
       </c>
       <c r="CJ7" s="43">
         <f t="shared" si="471"/>
@@ -10612,7 +10745,9 @@
       <c r="CG8" s="59">
         <v>7590</v>
       </c>
-      <c r="CH8" s="59"/>
+      <c r="CH8" s="59">
+        <v>7705</v>
+      </c>
       <c r="CI8" s="59"/>
       <c r="CJ8" s="59"/>
       <c r="CK8" s="59"/>
@@ -11088,11 +11223,11 @@
       </c>
       <c r="CH9" s="44">
         <f t="shared" si="616"/>
+        <v>1.5151515151515138E-2</v>
+      </c>
+      <c r="CI9" s="44">
+        <f t="shared" si="616"/>
         <v>-1</v>
-      </c>
-      <c r="CI9" s="44" t="e">
-        <f t="shared" si="616"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="CJ9" s="44" t="e">
         <f t="shared" si="616"/>
@@ -12042,11 +12177,11 @@
       </c>
       <c r="CH10" s="43">
         <f t="shared" si="761"/>
-        <v>-7590</v>
+        <v>115</v>
       </c>
       <c r="CI10" s="43">
         <f t="shared" si="761"/>
-        <v>0</v>
+        <v>-7705</v>
       </c>
       <c r="CJ10" s="43">
         <f t="shared" si="761"/>
@@ -13154,7 +13289,9 @@
       <c r="CG12" s="63">
         <v>306171</v>
       </c>
-      <c r="CH12" s="63"/>
+      <c r="CH12" s="63">
+        <v>308584</v>
+      </c>
       <c r="CI12" s="63"/>
       <c r="CJ12" s="63"/>
       <c r="CK12" s="63"/>
@@ -13641,11 +13778,11 @@
       </c>
       <c r="CH13" s="51">
         <f t="shared" si="906"/>
+        <v>7.8812167056971916E-3</v>
+      </c>
+      <c r="CI13" s="51">
+        <f t="shared" si="906"/>
         <v>-1</v>
-      </c>
-      <c r="CI13" s="51" t="e">
-        <f t="shared" si="906"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="CJ13" s="51" t="e">
         <f t="shared" si="906"/>
@@ -14595,11 +14732,11 @@
       </c>
       <c r="CH14" s="46">
         <f t="shared" si="1051"/>
-        <v>-306171</v>
+        <v>2413</v>
       </c>
       <c r="CI14" s="46">
         <f t="shared" si="1051"/>
-        <v>0</v>
+        <v>-308584</v>
       </c>
       <c r="CJ14" s="46">
         <f t="shared" si="1051"/>
@@ -15467,7 +15604,9 @@
       <c r="CG15" s="63">
         <v>26198</v>
       </c>
-      <c r="CH15" s="63"/>
+      <c r="CH15" s="63">
+        <v>26130</v>
+      </c>
       <c r="CI15" s="63"/>
       <c r="CJ15" s="63"/>
       <c r="CK15" s="63"/>
@@ -15953,11 +16092,11 @@
       </c>
       <c r="CH16" s="51">
         <f t="shared" si="1196"/>
+        <v>-2.5956179861058581E-3</v>
+      </c>
+      <c r="CI16" s="51">
+        <f t="shared" si="1196"/>
         <v>-1</v>
-      </c>
-      <c r="CI16" s="51" t="e">
-        <f t="shared" si="1196"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="CJ16" s="51" t="e">
         <f t="shared" si="1196"/>
@@ -16907,11 +17046,11 @@
       </c>
       <c r="CH17" s="46">
         <f t="shared" si="1341"/>
-        <v>-26198</v>
+        <v>-68</v>
       </c>
       <c r="CI17" s="46">
         <f t="shared" si="1341"/>
-        <v>0</v>
+        <v>-26130</v>
       </c>
       <c r="CJ17" s="46">
         <f t="shared" si="1341"/>
@@ -17779,7 +17918,9 @@
       <c r="CG18" s="63">
         <v>2257</v>
       </c>
-      <c r="CH18" s="63"/>
+      <c r="CH18" s="63">
+        <v>2308</v>
+      </c>
       <c r="CI18" s="63"/>
       <c r="CJ18" s="63"/>
       <c r="CK18" s="63"/>
@@ -18263,11 +18404,11 @@
       </c>
       <c r="CH19" s="51">
         <f t="shared" si="1486"/>
+        <v>2.2596366858661954E-2</v>
+      </c>
+      <c r="CI19" s="51">
+        <f t="shared" si="1486"/>
         <v>-1</v>
-      </c>
-      <c r="CI19" s="51" t="e">
-        <f t="shared" si="1486"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="CJ19" s="51" t="e">
         <f t="shared" si="1486"/>
@@ -19217,11 +19358,11 @@
       </c>
       <c r="CH20" s="46">
         <f t="shared" si="1631"/>
-        <v>-2257</v>
+        <v>51</v>
       </c>
       <c r="CI20" s="46">
         <f t="shared" si="1631"/>
-        <v>0</v>
+        <v>-2308</v>
       </c>
       <c r="CJ20" s="46">
         <f t="shared" si="1631"/>
@@ -20252,7 +20393,9 @@
       <c r="CG22" s="66">
         <v>30200</v>
       </c>
-      <c r="CH22" s="66"/>
+      <c r="CH22" s="66">
+        <v>30471</v>
+      </c>
       <c r="CI22" s="66"/>
       <c r="CJ22" s="66"/>
       <c r="CK22" s="66"/>
@@ -20739,11 +20882,11 @@
       </c>
       <c r="CH23" s="53">
         <f t="shared" si="1776"/>
+        <v>8.9735099337748814E-3</v>
+      </c>
+      <c r="CI23" s="53">
+        <f t="shared" si="1776"/>
         <v>-1</v>
-      </c>
-      <c r="CI23" s="53" t="e">
-        <f t="shared" si="1776"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="CJ23" s="53" t="e">
         <f t="shared" si="1776"/>
@@ -21693,11 +21836,11 @@
       </c>
       <c r="CH24" s="74">
         <f t="shared" si="1921"/>
-        <v>-30200</v>
+        <v>271</v>
       </c>
       <c r="CI24" s="74">
         <f t="shared" si="1921"/>
-        <v>0</v>
+        <v>-30471</v>
       </c>
       <c r="CJ24" s="74">
         <f t="shared" si="1921"/>
@@ -22579,7 +22722,7 @@
         <v>22885</v>
       </c>
       <c r="BQ25" s="66">
-        <f t="shared" ref="BQ25:CG25" si="2065">BQ22-BQ36-BQ8</f>
+        <f t="shared" ref="BQ25:CH25" si="2065">BQ22-BQ36-BQ8</f>
         <v>23017</v>
       </c>
       <c r="BR25" s="66">
@@ -22646,7 +22789,10 @@
         <f t="shared" si="2065"/>
         <v>21321</v>
       </c>
-      <c r="CH25" s="66"/>
+      <c r="CH25" s="66">
+        <f t="shared" si="2065"/>
+        <v>21464</v>
+      </c>
       <c r="CI25" s="66"/>
       <c r="CJ25" s="66"/>
       <c r="CK25" s="66"/>
@@ -23133,11 +23279,11 @@
       </c>
       <c r="CH26" s="53">
         <f t="shared" si="2069"/>
+        <v>6.7070024858120192E-3</v>
+      </c>
+      <c r="CI26" s="53">
+        <f t="shared" si="2069"/>
         <v>-1</v>
-      </c>
-      <c r="CI26" s="53" t="e">
-        <f t="shared" si="2069"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="CJ26" s="53" t="e">
         <f t="shared" si="2069"/>
@@ -24088,11 +24234,11 @@
       </c>
       <c r="CH27" s="74">
         <f t="shared" si="2214"/>
-        <v>-21321</v>
+        <v>143</v>
       </c>
       <c r="CI27" s="74">
         <f t="shared" si="2214"/>
-        <v>0</v>
+        <v>-21464</v>
       </c>
       <c r="CJ27" s="74">
         <f t="shared" si="2214"/>
@@ -25201,7 +25347,9 @@
       <c r="CG29" s="69">
         <v>576</v>
       </c>
-      <c r="CH29" s="69"/>
+      <c r="CH29" s="69">
+        <v>550</v>
+      </c>
       <c r="CI29" s="69"/>
       <c r="CJ29" s="69"/>
       <c r="CK29" s="69"/>
@@ -25686,11 +25834,11 @@
       </c>
       <c r="CH30" s="55">
         <f t="shared" si="2359"/>
+        <v>-4.513888888888884E-2</v>
+      </c>
+      <c r="CI30" s="55">
+        <f t="shared" si="2359"/>
         <v>-1</v>
-      </c>
-      <c r="CI30" s="55" t="e">
-        <f t="shared" si="2359"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="CJ30" s="55" t="e">
         <f t="shared" si="2359"/>
@@ -26640,11 +26788,11 @@
       </c>
       <c r="CH31" s="75">
         <f t="shared" si="2504"/>
-        <v>-576</v>
+        <v>-26</v>
       </c>
       <c r="CI31" s="75">
         <f t="shared" si="2504"/>
-        <v>0</v>
+        <v>-550</v>
       </c>
       <c r="CJ31" s="75">
         <f t="shared" si="2504"/>
@@ -27512,7 +27660,9 @@
       <c r="CG32" s="69">
         <v>84</v>
       </c>
-      <c r="CH32" s="69"/>
+      <c r="CH32" s="69">
+        <v>80</v>
+      </c>
       <c r="CI32" s="69"/>
       <c r="CJ32" s="69"/>
       <c r="CK32" s="69"/>
@@ -27988,11 +28138,11 @@
       </c>
       <c r="CH33" s="55">
         <f t="shared" si="2649"/>
+        <v>-4.7619047619047672E-2</v>
+      </c>
+      <c r="CI33" s="55">
+        <f t="shared" si="2649"/>
         <v>-1</v>
-      </c>
-      <c r="CI33" s="55" t="e">
-        <f t="shared" si="2649"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="CJ33" s="55" t="e">
         <f t="shared" si="2649"/>
@@ -28942,11 +29092,11 @@
       </c>
       <c r="CH34" s="75">
         <f t="shared" si="2794"/>
-        <v>-84</v>
+        <v>-4</v>
       </c>
       <c r="CI34" s="75">
         <f t="shared" si="2794"/>
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="CJ34" s="75">
         <f t="shared" si="2794"/>
@@ -29649,7 +29799,9 @@
       <c r="CE35" s="33"/>
       <c r="CF35" s="33"/>
       <c r="CG35" s="33"/>
-      <c r="CH35" s="33"/>
+      <c r="CH35" s="33">
+        <v>1299</v>
+      </c>
       <c r="CI35" s="33"/>
       <c r="CJ35" s="33"/>
       <c r="CK35" s="33"/>
@@ -30055,7 +30207,9 @@
       <c r="CG36" s="70">
         <v>1289</v>
       </c>
-      <c r="CH36" s="70"/>
+      <c r="CH36" s="70">
+        <v>1302</v>
+      </c>
       <c r="CI36" s="70"/>
       <c r="CJ36" s="70"/>
       <c r="CK36" s="70"/>
@@ -30528,11 +30682,11 @@
       </c>
       <c r="CH37" s="57">
         <f t="shared" si="2938"/>
+        <v>1.0085337470907785E-2</v>
+      </c>
+      <c r="CI37" s="57">
+        <f t="shared" si="2938"/>
         <v>-1</v>
-      </c>
-      <c r="CI37" s="57" t="e">
-        <f t="shared" si="2938"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="CJ37" s="57" t="e">
         <f t="shared" si="2938"/>
@@ -31482,11 +31636,11 @@
       </c>
       <c r="CH38" s="76">
         <f t="shared" si="3083"/>
-        <v>-1289</v>
+        <v>13</v>
       </c>
       <c r="CI38" s="76">
         <f t="shared" si="3083"/>
-        <v>0</v>
+        <v>-1302</v>
       </c>
       <c r="CJ38" s="76">
         <f t="shared" si="3083"/>
@@ -32114,13 +32268,23 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="BO2:BU2"/>
-    <mergeCell ref="BH2:BN2"/>
-    <mergeCell ref="BA2:BG2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="HT2:HZ2"/>
+    <mergeCell ref="IA2:IG2"/>
+    <mergeCell ref="GK2:GQ2"/>
+    <mergeCell ref="GR2:GX2"/>
+    <mergeCell ref="GY2:HE2"/>
+    <mergeCell ref="HF2:HL2"/>
+    <mergeCell ref="HM2:HS2"/>
+    <mergeCell ref="FB2:FH2"/>
+    <mergeCell ref="FI2:FO2"/>
+    <mergeCell ref="FP2:FV2"/>
+    <mergeCell ref="FW2:GC2"/>
+    <mergeCell ref="GD2:GJ2"/>
+    <mergeCell ref="DS2:DY2"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="EG2:EM2"/>
+    <mergeCell ref="EN2:ET2"/>
+    <mergeCell ref="EU2:FA2"/>
     <mergeCell ref="DL2:DR2"/>
     <mergeCell ref="AM2:AS2"/>
     <mergeCell ref="AF2:AL2"/>
@@ -32131,23 +32295,13 @@
     <mergeCell ref="CQ2:CW2"/>
     <mergeCell ref="CX2:DD2"/>
     <mergeCell ref="DE2:DK2"/>
-    <mergeCell ref="DS2:DY2"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="EG2:EM2"/>
-    <mergeCell ref="EN2:ET2"/>
-    <mergeCell ref="EU2:FA2"/>
-    <mergeCell ref="FB2:FH2"/>
-    <mergeCell ref="FI2:FO2"/>
-    <mergeCell ref="FP2:FV2"/>
-    <mergeCell ref="FW2:GC2"/>
-    <mergeCell ref="GD2:GJ2"/>
-    <mergeCell ref="HT2:HZ2"/>
-    <mergeCell ref="IA2:IG2"/>
-    <mergeCell ref="GK2:GQ2"/>
-    <mergeCell ref="GR2:GX2"/>
-    <mergeCell ref="GY2:HE2"/>
-    <mergeCell ref="HF2:HL2"/>
-    <mergeCell ref="HM2:HS2"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="BV2:CB2"/>
+    <mergeCell ref="BO2:BU2"/>
+    <mergeCell ref="BH2:BN2"/>
+    <mergeCell ref="BA2:BG2"/>
+    <mergeCell ref="AT2:AZ2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32160,10 +32314,10 @@
   <dimension ref="A1:W315"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q96" sqref="Q96:T103"/>
+      <selection pane="bottomRight" activeCell="V96" sqref="V96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36202,7 +36356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="17" thickBot="1">
+    <row r="81" spans="1:20" ht="17" thickBot="1">
       <c r="A81" s="8">
         <v>43965</v>
       </c>
@@ -36252,7 +36406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="17" thickBot="1">
+    <row r="82" spans="1:20" ht="17" thickBot="1">
       <c r="A82" s="8">
         <v>43966</v>
       </c>
@@ -36302,7 +36456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="17" thickBot="1">
+    <row r="83" spans="1:20" ht="17" thickBot="1">
       <c r="A83" s="8">
         <v>43967</v>
       </c>
@@ -36352,7 +36506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="17" thickBot="1">
+    <row r="84" spans="1:20" ht="17" thickBot="1">
       <c r="A84" s="8">
         <v>43968</v>
       </c>
@@ -36402,7 +36556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="17" thickBot="1">
+    <row r="85" spans="1:20" ht="17" thickBot="1">
       <c r="A85" s="8">
         <v>43969</v>
       </c>
@@ -36452,7 +36606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="17" thickBot="1">
+    <row r="86" spans="1:20" ht="17" thickBot="1">
       <c r="A86" s="8">
         <v>43970</v>
       </c>
@@ -36502,7 +36656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="17" thickBot="1">
+    <row r="87" spans="1:20" ht="17" thickBot="1">
       <c r="A87" s="8">
         <v>43971</v>
       </c>
@@ -36552,7 +36706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="17" thickBot="1">
+    <row r="88" spans="1:20" ht="17" thickBot="1">
       <c r="A88" s="8">
         <v>43972</v>
       </c>
@@ -36565,7 +36719,7 @@
       <c r="D88" s="6">
         <v>717</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="30">
         <v>3662</v>
       </c>
       <c r="F88" s="6">
@@ -36601,8 +36755,10 @@
       <c r="P88" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="17" thickBot="1">
+      <c r="S88" s="106"/>
+      <c r="T88" s="106"/>
+    </row>
+    <row r="89" spans="1:20" ht="17" thickBot="1">
       <c r="A89" s="8">
         <v>43973</v>
       </c>
@@ -36615,7 +36771,7 @@
       <c r="D89" s="6">
         <v>725</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="30">
         <v>3664</v>
       </c>
       <c r="F89" s="6">
@@ -36652,29 +36808,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="17" thickBot="1">
+    <row r="90" spans="1:20" ht="17" thickBot="1">
       <c r="A90" s="8">
         <v>43974</v>
       </c>
       <c r="B90" s="18">
         <v>88</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="6"/>
-    </row>
-    <row r="91" spans="1:16" ht="17" thickBot="1">
+      <c r="C90" s="5">
+        <v>16664</v>
+      </c>
+      <c r="D90" s="6">
+        <v>732</v>
+      </c>
+      <c r="E90" s="30">
+        <v>3676</v>
+      </c>
+      <c r="F90" s="105">
+        <v>230</v>
+      </c>
+      <c r="G90" s="7">
+        <v>9292</v>
+      </c>
+      <c r="H90" s="6">
+        <v>309</v>
+      </c>
+      <c r="I90" s="7">
+        <v>253</v>
+      </c>
+      <c r="J90" s="6">
+        <v>1</v>
+      </c>
+      <c r="K90" s="7">
+        <v>361</v>
+      </c>
+      <c r="L90" s="6">
+        <v>15</v>
+      </c>
+      <c r="M90" s="7">
+        <v>90</v>
+      </c>
+      <c r="N90" s="6">
+        <v>0</v>
+      </c>
+      <c r="O90" s="7">
+        <v>135</v>
+      </c>
+      <c r="P90" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="17" thickBot="1">
       <c r="A91" s="8">
         <v>43975</v>
       </c>
@@ -36696,7 +36880,7 @@
       <c r="O91" s="7"/>
       <c r="P91" s="6"/>
     </row>
-    <row r="92" spans="1:16" ht="17" thickBot="1">
+    <row r="92" spans="1:20" ht="17" thickBot="1">
       <c r="A92" s="8">
         <v>43976</v>
       </c>
@@ -36718,7 +36902,7 @@
       <c r="O92" s="7"/>
       <c r="P92" s="6"/>
     </row>
-    <row r="93" spans="1:16" ht="17" thickBot="1">
+    <row r="93" spans="1:20" ht="17" thickBot="1">
       <c r="A93" s="8">
         <v>43977</v>
       </c>
@@ -36740,7 +36924,7 @@
       <c r="O93" s="7"/>
       <c r="P93" s="6"/>
     </row>
-    <row r="94" spans="1:16" ht="17" thickBot="1">
+    <row r="94" spans="1:20" ht="17" thickBot="1">
       <c r="A94" s="8">
         <v>43978</v>
       </c>
@@ -36762,7 +36946,7 @@
       <c r="O94" s="7"/>
       <c r="P94" s="6"/>
     </row>
-    <row r="95" spans="1:16" ht="17" thickBot="1">
+    <row r="95" spans="1:20" ht="17" thickBot="1">
       <c r="A95" s="8">
         <v>43979</v>
       </c>
@@ -36784,7 +36968,7 @@
       <c r="O95" s="7"/>
       <c r="P95" s="6"/>
     </row>
-    <row r="96" spans="1:16" ht="17" thickBot="1">
+    <row r="96" spans="1:20" ht="17" thickBot="1">
       <c r="A96" s="8">
         <v>43980</v>
       </c>
@@ -41643,88 +41827,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9430E89-8C4A-9848-8F9C-310318091DF7}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="B1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="92.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="2:9" ht="8" customHeight="1"/>
+    <row r="2" spans="2:9" ht="17">
+      <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" s="104" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="26">
+    <row r="3" spans="2:9" ht="17">
+      <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="28">
+      <c r="C3" s="28">
         <v>43890</v>
       </c>
-      <c r="C2" s="27">
-        <v>0</v>
-      </c>
-      <c r="D2" s="27">
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
         <v>1</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="28">
-        <v>43891</v>
-      </c>
-      <c r="C3" s="27">
-        <v>0</v>
-      </c>
-      <c r="D3" s="27">
-        <v>2</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>78</v>
       </c>
       <c r="F3" s="31" t="s">
         <v>78</v>
@@ -41732,25 +41889,25 @@
       <c r="G3" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="28">
-        <v>43892</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="H3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="17">
+      <c r="B4" s="26">
         <v>2</v>
       </c>
+      <c r="C4" s="28">
+        <v>43891</v>
+      </c>
       <c r="D4" s="27">
-        <v>3</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>2</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>78</v>
@@ -41758,25 +41915,25 @@
       <c r="G4" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="26">
-        <v>4</v>
-      </c>
-      <c r="B5" s="28">
-        <v>43893</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="H4" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="17">
+      <c r="B5" s="26">
+        <v>3</v>
+      </c>
+      <c r="C5" s="28">
+        <v>43892</v>
+      </c>
+      <c r="D5" s="27">
         <v>2</v>
       </c>
-      <c r="D5" s="27">
-        <v>4</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>78</v>
+      <c r="E5" s="27">
+        <v>3</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>78</v>
@@ -41784,25 +41941,25 @@
       <c r="G5" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="H5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="26">
-        <v>5</v>
-      </c>
-      <c r="B6" s="28">
-        <v>43894</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="H5" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="45" customHeight="1">
+      <c r="B6" s="26">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28">
+        <v>43893</v>
+      </c>
+      <c r="D6" s="27">
         <v>2</v>
       </c>
-      <c r="D6" s="27">
-        <v>5</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>78</v>
+      <c r="E6" s="27">
+        <v>4</v>
       </c>
       <c r="F6" s="31" t="s">
         <v>78</v>
@@ -41810,25 +41967,25 @@
       <c r="G6" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="26">
-        <v>6</v>
-      </c>
-      <c r="B7" s="28">
-        <v>43895</v>
-      </c>
-      <c r="C7" s="27">
-        <v>3</v>
+      <c r="H6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="104" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="17">
+      <c r="B7" s="26">
+        <v>5</v>
+      </c>
+      <c r="C7" s="28">
+        <v>43894</v>
       </c>
       <c r="D7" s="27">
-        <v>6</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="E7" s="27">
+        <v>5</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>78</v>
@@ -41836,25 +41993,25 @@
       <c r="G7" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="H7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="26">
-        <v>7</v>
-      </c>
-      <c r="B8" s="28">
-        <v>43896</v>
-      </c>
-      <c r="C8" s="27">
-        <v>4</v>
+      <c r="H7" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="17">
+      <c r="B8" s="26">
+        <v>6</v>
+      </c>
+      <c r="C8" s="28">
+        <v>43895</v>
       </c>
       <c r="D8" s="27">
-        <v>7</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="E8" s="27">
+        <v>6</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>78</v>
@@ -41862,1778 +42019,1830 @@
       <c r="G8" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="29"/>
-    </row>
-    <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="26">
+      <c r="H8" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="17">
+      <c r="B9" s="26">
+        <v>7</v>
+      </c>
+      <c r="C9" s="28">
+        <v>43896</v>
+      </c>
+      <c r="D9" s="27">
+        <v>4</v>
+      </c>
+      <c r="E9" s="27">
+        <v>7</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="2:9" ht="17">
+      <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="28">
+      <c r="C10" s="28">
         <v>43897</v>
       </c>
-      <c r="C9" s="27">
+      <c r="D10" s="27">
         <v>8</v>
       </c>
-      <c r="D9" s="27">
+      <c r="E10" s="27">
         <v>8</v>
       </c>
-      <c r="E9" s="27">
+      <c r="F10" s="27">
         <v>4.8735889999999999</v>
       </c>
-      <c r="F9" s="27">
+      <c r="G10" s="27">
         <v>3.0542522999999999</v>
       </c>
-      <c r="G9" s="27">
+      <c r="H10" s="27">
         <v>7.1111712000000002</v>
       </c>
-      <c r="H9" s="29"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="26">
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="28">
+      <c r="C11" s="28">
         <v>43898</v>
       </c>
-      <c r="C10" s="27">
+      <c r="D11" s="27">
         <v>9</v>
       </c>
-      <c r="D10" s="27">
+      <c r="E11" s="27">
         <v>9</v>
       </c>
-      <c r="E10" s="27">
+      <c r="F11" s="27">
         <v>4.4494895000000003</v>
       </c>
-      <c r="F10" s="27">
+      <c r="G11" s="27">
         <v>3.0232123</v>
       </c>
-      <c r="G10" s="27">
+      <c r="H11" s="27">
         <v>6.1470222000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="26">
+    <row r="12" spans="2:9">
+      <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="28">
+      <c r="C12" s="28">
         <v>43899</v>
       </c>
-      <c r="C11" s="27">
+      <c r="D12" s="27">
         <v>9</v>
       </c>
-      <c r="D11" s="27">
+      <c r="E12" s="27">
         <v>10</v>
       </c>
-      <c r="E11" s="27">
+      <c r="F12" s="27">
         <v>3.5647872</v>
       </c>
-      <c r="F11" s="27">
+      <c r="G12" s="27">
         <v>2.5226556000000002</v>
       </c>
-      <c r="G11" s="27">
+      <c r="H12" s="27">
         <v>4.7842846000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="26">
+    <row r="13" spans="2:9">
+      <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="28">
+      <c r="C13" s="28">
         <v>43900</v>
       </c>
-      <c r="C12" s="27">
+      <c r="D13" s="27">
         <v>2</v>
       </c>
-      <c r="D12" s="27">
+      <c r="E13" s="27">
         <v>11</v>
       </c>
-      <c r="E12" s="27">
+      <c r="F13" s="27">
         <v>2.4471911</v>
       </c>
-      <c r="F12" s="27">
+      <c r="G13" s="27">
         <v>1.731778</v>
       </c>
-      <c r="G12" s="27">
+      <c r="H13" s="27">
         <v>3.2843638999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="26">
+    <row r="14" spans="2:9">
+      <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="28">
+      <c r="C14" s="28">
         <v>43901</v>
       </c>
-      <c r="C13" s="27">
+      <c r="D14" s="27">
         <v>18</v>
       </c>
-      <c r="D13" s="27">
+      <c r="E14" s="27">
         <v>12</v>
       </c>
-      <c r="E13" s="27">
+      <c r="F14" s="27">
         <v>2.6051701</v>
       </c>
-      <c r="F13" s="27">
+      <c r="G14" s="27">
         <v>1.9570839</v>
       </c>
-      <c r="G13" s="27">
+      <c r="H14" s="27">
         <v>3.3445223999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="26">
+    <row r="15" spans="2:9">
+      <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="28">
+      <c r="C15" s="28">
         <v>43902</v>
       </c>
-      <c r="C14" s="27">
+      <c r="D15" s="27">
         <v>19</v>
       </c>
-      <c r="D14" s="27">
+      <c r="E15" s="27">
         <v>13</v>
       </c>
-      <c r="E14" s="27">
+      <c r="F15" s="27">
         <v>2.6868400000000001</v>
       </c>
-      <c r="F14" s="27">
+      <c r="G15" s="27">
         <v>2.0945236</v>
       </c>
-      <c r="G14" s="27">
+      <c r="H15" s="27">
         <v>3.3517912999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="26">
+    <row r="16" spans="2:9">
+      <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="28">
+      <c r="C16" s="28">
         <v>43903</v>
       </c>
-      <c r="C15" s="27">
+      <c r="D16" s="27">
         <v>34</v>
       </c>
-      <c r="D15" s="27">
+      <c r="E16" s="27">
         <v>14</v>
       </c>
-      <c r="E15" s="27">
+      <c r="F16" s="27">
         <v>3.0085022000000001</v>
       </c>
-      <c r="F15" s="27">
+      <c r="G16" s="27">
         <v>2.4478374000000001</v>
       </c>
-      <c r="G15" s="27">
+      <c r="H16" s="27">
         <v>3.6261160000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="26">
+    <row r="17" spans="2:8">
+      <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="28">
+      <c r="C17" s="28">
         <v>43904</v>
       </c>
-      <c r="C16" s="27">
+      <c r="D17" s="27">
         <v>57</v>
       </c>
-      <c r="D16" s="27">
+      <c r="E17" s="27">
         <v>15</v>
       </c>
-      <c r="E16" s="27">
+      <c r="F17" s="27">
         <v>3.4410823000000001</v>
       </c>
-      <c r="F16" s="27">
+      <c r="G17" s="27">
         <v>2.9107481000000002</v>
       </c>
-      <c r="G16" s="27">
+      <c r="H17" s="27">
         <v>4.0151434000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="26">
+    <row r="18" spans="2:8">
+      <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="28">
+      <c r="C18" s="28">
         <v>43905</v>
       </c>
-      <c r="C17" s="27">
+      <c r="D18" s="27">
         <v>76</v>
       </c>
-      <c r="D17" s="27">
+      <c r="E18" s="27">
         <v>16</v>
       </c>
-      <c r="E17" s="27">
+      <c r="F18" s="27">
         <v>3.6788731000000001</v>
       </c>
-      <c r="F17" s="27">
+      <c r="G18" s="27">
         <v>3.2045889000000001</v>
       </c>
-      <c r="G17" s="27">
+      <c r="H18" s="27">
         <v>4.1854098999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="26">
+    <row r="19" spans="2:8">
+      <c r="B19" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="28">
+      <c r="C19" s="28">
         <v>43906</v>
       </c>
-      <c r="C18" s="27">
+      <c r="D19" s="27">
         <v>86</v>
       </c>
-      <c r="D18" s="27">
+      <c r="E19" s="27">
         <v>17</v>
       </c>
-      <c r="E18" s="27">
+      <c r="F19" s="27">
         <v>3.5506359999999999</v>
       </c>
-      <c r="F18" s="27">
+      <c r="G19" s="27">
         <v>3.1556765000000002</v>
       </c>
-      <c r="G18" s="27">
+      <c r="H19" s="27">
         <v>3.9685453000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="26">
+    <row r="20" spans="2:8">
+      <c r="B20" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="28">
+      <c r="C20" s="28">
         <v>43907</v>
       </c>
-      <c r="C19" s="27">
+      <c r="D20" s="27">
         <v>117</v>
       </c>
-      <c r="D19" s="27">
+      <c r="E20" s="27">
         <v>18</v>
       </c>
-      <c r="E19" s="27">
+      <c r="F20" s="27">
         <v>3.4918250999999998</v>
       </c>
-      <c r="F19" s="27">
+      <c r="G20" s="27">
         <v>3.1611813999999998</v>
       </c>
-      <c r="G19" s="27">
+      <c r="H20" s="27">
         <v>3.8386781000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="26">
+    <row r="21" spans="2:8">
+      <c r="B21" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="28">
+      <c r="C21" s="28">
         <v>43908</v>
       </c>
-      <c r="C20" s="27">
+      <c r="D21" s="27">
         <v>194</v>
       </c>
-      <c r="D20" s="27">
+      <c r="E21" s="27">
         <v>19</v>
       </c>
-      <c r="E20" s="27">
+      <c r="F21" s="27">
         <v>3.5644417000000002</v>
       </c>
-      <c r="F20" s="27">
+      <c r="G21" s="27">
         <v>3.2811753000000001</v>
       </c>
-      <c r="G20" s="27">
+      <c r="H21" s="27">
         <v>3.8592686</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="26">
+    <row r="22" spans="2:8">
+      <c r="B22" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="28">
+      <c r="C22" s="28">
         <v>43909</v>
       </c>
-      <c r="C21" s="27">
+      <c r="D22" s="27">
         <v>143</v>
       </c>
-      <c r="D21" s="27">
+      <c r="E22" s="27">
         <v>20</v>
       </c>
-      <c r="E21" s="27">
+      <c r="F22" s="27">
         <v>3.0809779000000002</v>
       </c>
-      <c r="F21" s="27">
+      <c r="G22" s="27">
         <v>2.8581826000000001</v>
       </c>
-      <c r="G21" s="27">
+      <c r="H22" s="27">
         <v>3.3120156999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="26">
+    <row r="23" spans="2:8">
+      <c r="B23" s="26">
         <v>21</v>
       </c>
-      <c r="B22" s="28">
+      <c r="C23" s="28">
         <v>43910</v>
       </c>
-      <c r="C22" s="27">
+      <c r="D23" s="27">
         <v>235</v>
       </c>
-      <c r="D22" s="27">
+      <c r="E23" s="27">
         <v>21</v>
       </c>
-      <c r="E22" s="27">
+      <c r="F23" s="27">
         <v>2.8634686</v>
       </c>
-      <c r="F22" s="27">
+      <c r="G23" s="27">
         <v>2.6803219</v>
       </c>
-      <c r="G22" s="27">
+      <c r="H23" s="27">
         <v>3.0525821</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="26">
+    <row r="24" spans="2:8">
+      <c r="B24" s="26">
         <v>22</v>
       </c>
-      <c r="B23" s="28">
+      <c r="C24" s="28">
         <v>43911</v>
       </c>
-      <c r="C23" s="27">
+      <c r="D24" s="27">
         <v>260</v>
       </c>
-      <c r="D23" s="27">
+      <c r="E24" s="27">
         <v>22</v>
       </c>
-      <c r="E23" s="27">
+      <c r="F24" s="27">
         <v>2.6326960000000001</v>
       </c>
-      <c r="F23" s="27">
+      <c r="G24" s="27">
         <v>2.4802127</v>
       </c>
-      <c r="G23" s="27">
+      <c r="H24" s="27">
         <v>2.7896638999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="26">
+    <row r="25" spans="2:8">
+      <c r="B25" s="26">
         <v>23</v>
       </c>
-      <c r="B24" s="28">
+      <c r="C25" s="28">
         <v>43912</v>
       </c>
-      <c r="C24" s="27">
+      <c r="D25" s="27">
         <v>320</v>
       </c>
-      <c r="D24" s="27">
+      <c r="E25" s="27">
         <v>23</v>
       </c>
-      <c r="E24" s="27">
+      <c r="F25" s="27">
         <v>2.4692205</v>
       </c>
-      <c r="F24" s="27">
+      <c r="G25" s="27">
         <v>2.3395286</v>
       </c>
-      <c r="G24" s="27">
+      <c r="H25" s="27">
         <v>2.6023616000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="26">
+    <row r="26" spans="2:8">
+      <c r="B26" s="26">
         <v>24</v>
       </c>
-      <c r="B25" s="28">
+      <c r="C26" s="28">
         <v>43913</v>
       </c>
-      <c r="C25" s="27">
+      <c r="D26" s="27">
         <v>460</v>
       </c>
-      <c r="D25" s="27">
+      <c r="E26" s="27">
         <v>24</v>
       </c>
-      <c r="E25" s="27">
+      <c r="F26" s="27">
         <v>2.4781551999999998</v>
       </c>
-      <c r="F25" s="27">
+      <c r="G26" s="27">
         <v>2.3627417999999998</v>
       </c>
-      <c r="G25" s="27">
+      <c r="H26" s="27">
         <v>2.596282</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="26">
+    <row r="27" spans="2:8">
+      <c r="B27" s="26">
         <v>25</v>
       </c>
-      <c r="B26" s="28">
+      <c r="C27" s="28">
         <v>43914</v>
       </c>
-      <c r="C26" s="27">
+      <c r="D27" s="27">
         <v>302</v>
       </c>
-      <c r="D26" s="27">
+      <c r="E27" s="27">
         <v>25</v>
       </c>
-      <c r="E26" s="27">
+      <c r="F27" s="27">
         <v>2.1823921999999998</v>
       </c>
-      <c r="F26" s="27">
+      <c r="G27" s="27">
         <v>2.0857306000000002</v>
       </c>
-      <c r="G26" s="27">
+      <c r="H27" s="27">
         <v>2.2812125000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="26">
+    <row r="28" spans="2:8">
+      <c r="B28" s="26">
         <v>26</v>
       </c>
-      <c r="B27" s="28">
+      <c r="C28" s="28">
         <v>43915</v>
       </c>
-      <c r="C27" s="27">
+      <c r="D28" s="27">
         <v>633</v>
       </c>
-      <c r="D27" s="27">
+      <c r="E28" s="27">
         <v>26</v>
       </c>
-      <c r="E27" s="27">
+      <c r="F28" s="27">
         <v>2.1619942000000001</v>
       </c>
-      <c r="F27" s="27">
+      <c r="G28" s="27">
         <v>2.0755300999999999</v>
       </c>
-      <c r="G27" s="27">
+      <c r="H28" s="27">
         <v>2.2501980000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="26">
+    <row r="29" spans="2:8">
+      <c r="B29" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="28">
+      <c r="C29" s="28">
         <v>43916</v>
       </c>
-      <c r="C28" s="27">
+      <c r="D29" s="27">
         <v>549</v>
       </c>
-      <c r="D28" s="27">
+      <c r="E29" s="27">
         <v>27</v>
       </c>
-      <c r="E28" s="27">
+      <c r="F29" s="27">
         <v>2.0909336999999999</v>
       </c>
-      <c r="F28" s="27">
+      <c r="G29" s="27">
         <v>2.0136466999999998</v>
       </c>
-      <c r="G28" s="27">
+      <c r="H29" s="27">
         <v>2.1696558000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="26">
+    <row r="30" spans="2:8">
+      <c r="B30" s="26">
         <v>28</v>
       </c>
-      <c r="B29" s="28">
+      <c r="C30" s="28">
         <v>43917</v>
       </c>
-      <c r="C29" s="27">
+      <c r="D30" s="27">
         <v>724</v>
       </c>
-      <c r="D29" s="27">
+      <c r="E30" s="27">
         <v>28</v>
       </c>
-      <c r="E29" s="27">
+      <c r="F30" s="27">
         <v>2.0422948999999999</v>
       </c>
-      <c r="F29" s="27">
+      <c r="G30" s="27">
         <v>1.9726672000000001</v>
       </c>
-      <c r="G29" s="27">
+      <c r="H30" s="27">
         <v>2.1131134</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="26">
+    <row r="31" spans="2:8">
+      <c r="B31" s="26">
         <v>29</v>
       </c>
-      <c r="B30" s="28">
+      <c r="C31" s="28">
         <v>43918</v>
       </c>
-      <c r="C30" s="27">
+      <c r="D31" s="27">
         <v>902</v>
       </c>
-      <c r="D30" s="27">
+      <c r="E31" s="27">
         <v>29</v>
       </c>
-      <c r="E30" s="27">
+      <c r="F31" s="27">
         <v>2.0458188000000002</v>
       </c>
-      <c r="F30" s="27">
+      <c r="G31" s="27">
         <v>1.982037</v>
       </c>
-      <c r="G30" s="27">
+      <c r="H31" s="27">
         <v>2.1105966999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="26">
+    <row r="32" spans="2:8">
+      <c r="B32" s="26">
         <v>30</v>
       </c>
-      <c r="B31" s="28">
+      <c r="C32" s="28">
         <v>43919</v>
       </c>
-      <c r="C31" s="27">
+      <c r="D32" s="27">
         <v>792</v>
       </c>
-      <c r="D31" s="27">
+      <c r="E32" s="27">
         <v>30</v>
       </c>
-      <c r="E31" s="27">
+      <c r="F32" s="27">
         <v>1.9267911</v>
       </c>
-      <c r="F31" s="27">
+      <c r="G32" s="27">
         <v>1.8700376000000001</v>
       </c>
-      <c r="G31" s="27">
+      <c r="H32" s="27">
         <v>1.9843811</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="26">
+    <row r="33" spans="2:8">
+      <c r="B33" s="26">
         <v>31</v>
       </c>
-      <c r="B32" s="28">
+      <c r="C33" s="28">
         <v>43920</v>
       </c>
-      <c r="C32" s="27">
+      <c r="D33" s="27">
         <v>446</v>
       </c>
-      <c r="D32" s="27">
+      <c r="E33" s="27">
         <v>31</v>
       </c>
-      <c r="E32" s="27">
+      <c r="F33" s="27">
         <v>1.6222382</v>
       </c>
-      <c r="F32" s="27">
+      <c r="G33" s="27">
         <v>1.574379</v>
       </c>
-      <c r="G32" s="27">
+      <c r="H33" s="27">
         <v>1.6708038999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="26">
+    <row r="34" spans="2:8">
+      <c r="B34" s="26">
         <v>32</v>
       </c>
-      <c r="B33" s="28">
+      <c r="C34" s="28">
         <v>43921</v>
       </c>
-      <c r="C33" s="27">
+      <c r="D34" s="27">
         <v>1035</v>
       </c>
-      <c r="D33" s="27">
+      <c r="E34" s="27">
         <v>32</v>
       </c>
-      <c r="E33" s="27">
+      <c r="F34" s="27">
         <v>1.641373</v>
       </c>
-      <c r="F33" s="27">
+      <c r="G34" s="27">
         <v>1.5965525</v>
       </c>
-      <c r="G33" s="27">
+      <c r="H34" s="27">
         <v>1.6868053000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="26">
+    <row r="35" spans="2:8">
+      <c r="B35" s="26">
         <v>33</v>
       </c>
-      <c r="B34" s="28">
+      <c r="C35" s="28">
         <v>43922</v>
       </c>
-      <c r="C34" s="27">
+      <c r="D35" s="27">
         <v>808</v>
       </c>
-      <c r="D34" s="27">
+      <c r="E35" s="27">
         <v>33</v>
       </c>
-      <c r="E34" s="27">
+      <c r="F35" s="27">
         <v>1.5104544</v>
       </c>
-      <c r="F34" s="27">
+      <c r="G35" s="27">
         <v>1.4698964999999999</v>
       </c>
-      <c r="G34" s="27">
+      <c r="H35" s="27">
         <v>1.5515565</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="26">
+    <row r="36" spans="2:8">
+      <c r="B36" s="26">
         <v>34</v>
       </c>
-      <c r="B35" s="28">
+      <c r="C36" s="28">
         <v>43923</v>
       </c>
-      <c r="C35" s="27">
+      <c r="D36" s="27">
         <v>783</v>
       </c>
-      <c r="D35" s="27">
+      <c r="E36" s="27">
         <v>34</v>
       </c>
-      <c r="E35" s="27">
+      <c r="F36" s="27">
         <v>1.4140659</v>
       </c>
-      <c r="F35" s="27">
+      <c r="G36" s="27">
         <v>1.3769087</v>
       </c>
-      <c r="G35" s="27">
+      <c r="H36" s="27">
         <v>1.451711</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="26">
+    <row r="37" spans="2:8">
+      <c r="B37" s="26">
         <v>35</v>
       </c>
-      <c r="B36" s="28">
+      <c r="C37" s="28">
         <v>43924</v>
       </c>
-      <c r="C36" s="27">
+      <c r="D37" s="27">
         <v>852</v>
       </c>
-      <c r="D36" s="27">
+      <c r="E37" s="27">
         <v>35</v>
       </c>
-      <c r="E36" s="27">
+      <c r="F37" s="27">
         <v>1.3200805</v>
       </c>
-      <c r="F36" s="27">
+      <c r="G37" s="27">
         <v>1.2857877</v>
       </c>
-      <c r="G36" s="27">
+      <c r="H37" s="27">
         <v>1.3548184000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="26">
+    <row r="38" spans="2:8">
+      <c r="B38" s="26">
         <v>36</v>
       </c>
-      <c r="B37" s="28">
+      <c r="C38" s="28">
         <v>43925</v>
       </c>
-      <c r="C37" s="27">
+      <c r="D38" s="27">
         <v>638</v>
       </c>
-      <c r="D37" s="27">
+      <c r="E38" s="27">
         <v>36</v>
       </c>
-      <c r="E37" s="27">
+      <c r="F38" s="27">
         <v>1.1664436</v>
       </c>
-      <c r="F37" s="27">
+      <c r="G38" s="27">
         <v>1.1354089000000001</v>
       </c>
-      <c r="G37" s="27">
+      <c r="H38" s="27">
         <v>1.1978909</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="26">
+    <row r="39" spans="2:8">
+      <c r="B39" s="26">
         <v>37</v>
       </c>
-      <c r="B38" s="28">
+      <c r="C39" s="28">
         <v>43926</v>
       </c>
-      <c r="C38" s="27">
+      <c r="D39" s="27">
         <v>754</v>
       </c>
-      <c r="D38" s="27">
+      <c r="E39" s="27">
         <v>37</v>
       </c>
-      <c r="E38" s="27">
+      <c r="F39" s="27">
         <v>1.0949259</v>
       </c>
-      <c r="F38" s="27">
+      <c r="G39" s="27">
         <v>1.0656908</v>
       </c>
-      <c r="G38" s="27">
+      <c r="H39" s="27">
         <v>1.1245510999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="26">
+    <row r="40" spans="2:8">
+      <c r="B40" s="26">
         <v>38</v>
       </c>
-      <c r="B39" s="28">
+      <c r="C40" s="28">
         <v>43927</v>
       </c>
-      <c r="C39" s="27">
+      <c r="D40" s="27">
         <v>452</v>
       </c>
-      <c r="D39" s="27">
+      <c r="E40" s="27">
         <v>38</v>
       </c>
-      <c r="E39" s="27">
+      <c r="F40" s="27">
         <v>1.0598361999999999</v>
       </c>
-      <c r="F39" s="27">
+      <c r="G40" s="27">
         <v>1.0315538</v>
       </c>
-      <c r="G39" s="27">
+      <c r="H40" s="27">
         <v>1.0884957</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="26">
+    <row r="41" spans="2:8">
+      <c r="B41" s="26">
         <v>39</v>
       </c>
-      <c r="B40" s="28">
+      <c r="C41" s="28">
         <v>43928</v>
       </c>
-      <c r="C40" s="27">
+      <c r="D41" s="27">
         <v>712</v>
       </c>
-      <c r="D40" s="27">
+      <c r="E41" s="27">
         <v>39</v>
       </c>
-      <c r="E40" s="27">
+      <c r="F41" s="27">
         <v>0.97542439999999997</v>
       </c>
-      <c r="F40" s="27">
+      <c r="G41" s="27">
         <v>0.94857279999999999</v>
       </c>
-      <c r="G40" s="27">
+      <c r="H41" s="27">
         <v>1.0026455999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="26">
+    <row r="42" spans="2:8">
+      <c r="B42" s="26">
         <v>40</v>
       </c>
-      <c r="B41" s="28">
+      <c r="C42" s="28">
         <v>43929</v>
       </c>
-      <c r="C41" s="27">
+      <c r="D42" s="27">
         <v>699</v>
       </c>
-      <c r="D41" s="27">
+      <c r="E42" s="27">
         <v>40</v>
       </c>
-      <c r="E41" s="27">
+      <c r="F42" s="27">
         <v>0.94515740000000004</v>
       </c>
-      <c r="F41" s="27">
+      <c r="G42" s="27">
         <v>0.91885260000000002</v>
       </c>
-      <c r="G41" s="27">
+      <c r="H42" s="27">
         <v>0.97182820000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="26">
+    <row r="43" spans="2:8">
+      <c r="B43" s="26">
         <v>41</v>
       </c>
-      <c r="B42" s="28">
+      <c r="C43" s="28">
         <v>43930</v>
       </c>
-      <c r="C42" s="27">
+      <c r="D43" s="27">
         <v>815</v>
       </c>
-      <c r="D42" s="27">
+      <c r="E43" s="27">
         <v>41</v>
       </c>
-      <c r="E42" s="27">
+      <c r="F43" s="27">
         <v>0.95497639999999995</v>
       </c>
-      <c r="F42" s="27">
+      <c r="G43" s="27">
         <v>0.92848419999999998</v>
       </c>
-      <c r="G42" s="27">
+      <c r="H43" s="27">
         <v>0.98183589999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="26">
+    <row r="44" spans="2:8">
+      <c r="B44" s="26">
         <v>42</v>
       </c>
-      <c r="B43" s="28">
+      <c r="C44" s="28">
         <v>43931</v>
       </c>
-      <c r="C43" s="27">
+      <c r="D44" s="27">
         <v>1516</v>
       </c>
-      <c r="D43" s="27">
+      <c r="E44" s="27">
         <v>42</v>
       </c>
-      <c r="E43" s="27">
+      <c r="F44" s="27">
         <v>1.0940817</v>
       </c>
-      <c r="F43" s="27">
+      <c r="G44" s="27">
         <v>1.0655790000000001</v>
       </c>
-      <c r="G43" s="27">
+      <c r="H44" s="27">
         <v>1.1229552</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="26">
+    <row r="45" spans="2:8">
+      <c r="B45" s="26">
         <v>43</v>
       </c>
-      <c r="B44" s="28">
+      <c r="C45" s="28">
         <v>43932</v>
       </c>
-      <c r="C44" s="27">
+      <c r="D45" s="27">
         <v>515</v>
       </c>
-      <c r="D44" s="27">
+      <c r="E45" s="27">
         <v>43</v>
       </c>
-      <c r="E44" s="27">
+      <c r="F45" s="27">
         <v>1.0717144000000001</v>
       </c>
-      <c r="F44" s="27">
+      <c r="G45" s="27">
         <v>1.0434840999999999</v>
       </c>
-      <c r="G44" s="27">
+      <c r="H45" s="27">
         <v>1.1003163</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="26">
+    <row r="46" spans="2:8">
+      <c r="B46" s="26">
         <v>44</v>
       </c>
-      <c r="B45" s="28">
+      <c r="C46" s="28">
         <v>43933</v>
       </c>
-      <c r="C45" s="27">
+      <c r="D46" s="27">
         <v>598</v>
       </c>
-      <c r="D45" s="27">
+      <c r="E46" s="27">
         <v>44</v>
       </c>
-      <c r="E45" s="27">
+      <c r="F46" s="27">
         <v>1.0262484000000001</v>
       </c>
-      <c r="F45" s="27">
+      <c r="G46" s="27">
         <v>0.99882400000000005</v>
       </c>
-      <c r="G45" s="27">
+      <c r="H46" s="27">
         <v>1.0540391</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="26">
+    <row r="47" spans="2:8">
+      <c r="B47" s="26">
         <v>45</v>
       </c>
-      <c r="B46" s="28">
+      <c r="C47" s="28">
         <v>43934</v>
       </c>
-      <c r="C46" s="27">
+      <c r="D47" s="27">
         <v>349</v>
       </c>
-      <c r="D46" s="27">
+      <c r="E47" s="27">
         <v>45</v>
       </c>
-      <c r="E46" s="27">
+      <c r="F47" s="27">
         <v>0.99411490000000002</v>
       </c>
-      <c r="F46" s="27">
+      <c r="G47" s="27">
         <v>0.96728930000000002</v>
       </c>
-      <c r="G46" s="27">
+      <c r="H47" s="27">
         <v>1.0213022</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="26">
+    <row r="48" spans="2:8">
+      <c r="B48" s="26">
         <v>46</v>
       </c>
-      <c r="B47" s="28">
+      <c r="C48" s="28">
         <v>43935</v>
       </c>
-      <c r="C47" s="27">
+      <c r="D48" s="27">
         <v>514</v>
       </c>
-      <c r="D47" s="27">
+      <c r="E48" s="27">
         <v>46</v>
       </c>
-      <c r="E47" s="27">
+      <c r="F48" s="27">
         <v>0.95164090000000001</v>
       </c>
-      <c r="F47" s="27">
+      <c r="G48" s="27">
         <v>0.92546220000000001</v>
       </c>
-      <c r="G47" s="27">
+      <c r="H48" s="27">
         <v>0.97817969999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="26">
+    <row r="49" spans="2:8">
+      <c r="B49" s="26">
         <v>47</v>
       </c>
-      <c r="B48" s="28">
+      <c r="C49" s="28">
         <v>43936</v>
       </c>
-      <c r="C48" s="27">
+      <c r="D49" s="27">
         <v>643</v>
       </c>
-      <c r="D48" s="27">
+      <c r="E49" s="27">
         <v>47</v>
       </c>
-      <c r="E48" s="27">
+      <c r="F49" s="27">
         <v>0.94330939999999996</v>
       </c>
-      <c r="F48" s="27">
+      <c r="G49" s="27">
         <v>0.91721450000000004</v>
       </c>
-      <c r="G48" s="27">
+      <c r="H49" s="27">
         <v>0.96976510000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="26">
+    <row r="50" spans="2:8">
+      <c r="B50" s="26">
         <v>48</v>
       </c>
-      <c r="B49" s="28">
+      <c r="C50" s="28">
         <v>43937</v>
       </c>
-      <c r="C49" s="27">
+      <c r="D50" s="27">
         <v>750</v>
       </c>
-      <c r="D49" s="27">
+      <c r="E50" s="27">
         <v>48</v>
       </c>
-      <c r="E49" s="27">
+      <c r="F50" s="27">
         <v>0.93953319999999996</v>
       </c>
-      <c r="F49" s="27">
+      <c r="G50" s="27">
         <v>0.91337170000000001</v>
       </c>
-      <c r="G49" s="27">
+      <c r="H50" s="27">
         <v>0.96605890000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="26">
+    <row r="51" spans="2:8">
+      <c r="B51" s="26">
         <v>49</v>
       </c>
-      <c r="B50" s="28">
+      <c r="C51" s="28">
         <v>43938</v>
       </c>
-      <c r="C50" s="27">
+      <c r="D51" s="27">
         <v>181</v>
       </c>
-      <c r="D50" s="27">
+      <c r="E51" s="27">
         <v>49</v>
       </c>
-      <c r="E50" s="27">
+      <c r="F51" s="27">
         <v>0.69091380000000002</v>
       </c>
-      <c r="F50" s="27">
+      <c r="G51" s="27">
         <v>0.66837400000000002</v>
       </c>
-      <c r="G50" s="27">
+      <c r="H51" s="27">
         <v>0.71382210000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="26">
+    <row r="52" spans="2:8">
+      <c r="B52" s="26">
         <v>50</v>
       </c>
-      <c r="B51" s="28">
+      <c r="C52" s="28">
         <v>43939</v>
       </c>
-      <c r="C51" s="27">
+      <c r="D52" s="27">
         <v>663</v>
       </c>
-      <c r="D51" s="27">
+      <c r="E52" s="27">
         <v>50</v>
       </c>
-      <c r="E51" s="27">
+      <c r="F52" s="27">
         <v>0.73947589999999996</v>
       </c>
-      <c r="F51" s="27">
+      <c r="G52" s="27">
         <v>0.71583549999999996</v>
       </c>
-      <c r="G51" s="27">
+      <c r="H52" s="27">
         <v>0.76349500000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="26">
+    <row r="53" spans="2:8">
+      <c r="B53" s="26">
         <v>51</v>
       </c>
-      <c r="B52" s="28">
+      <c r="C53" s="28">
         <v>43940</v>
       </c>
-      <c r="C52" s="27">
+      <c r="D53" s="27">
         <v>521</v>
       </c>
-      <c r="D52" s="27">
+      <c r="E53" s="27">
         <v>51</v>
       </c>
-      <c r="E52" s="27">
+      <c r="F53" s="27">
         <v>0.76723050000000004</v>
       </c>
-      <c r="F52" s="27">
+      <c r="G53" s="27">
         <v>0.74244560000000004</v>
       </c>
-      <c r="G52" s="27">
+      <c r="H53" s="27">
         <v>0.79241669999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="26">
+    <row r="54" spans="2:8">
+      <c r="B54" s="26">
         <v>52</v>
       </c>
-      <c r="B53" s="28">
+      <c r="C54" s="28">
         <v>43941</v>
       </c>
-      <c r="C53" s="27">
+      <c r="D54" s="27">
         <v>657</v>
       </c>
-      <c r="D53" s="27">
+      <c r="E54" s="27">
         <v>52</v>
       </c>
-      <c r="E53" s="27">
+      <c r="F54" s="27">
         <v>0.88211309999999998</v>
       </c>
-      <c r="F53" s="27">
+      <c r="G54" s="27">
         <v>0.85474740000000005</v>
       </c>
-      <c r="G53" s="27">
+      <c r="H54" s="27">
         <v>0.90990389999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="26">
+    <row r="55" spans="2:8">
+      <c r="B55" s="26">
         <v>53</v>
       </c>
-      <c r="B54" s="28">
+      <c r="C55" s="28">
         <v>43942</v>
       </c>
-      <c r="C54" s="27">
+      <c r="D55" s="27">
         <v>516</v>
       </c>
-      <c r="D54" s="27">
+      <c r="E55" s="27">
         <v>53</v>
       </c>
-      <c r="E54" s="27">
+      <c r="F55" s="27">
         <v>0.92546050000000002</v>
       </c>
-      <c r="F54" s="27">
+      <c r="G55" s="27">
         <v>0.89675740000000004</v>
       </c>
-      <c r="G54" s="27">
+      <c r="H55" s="27">
         <v>0.9546095</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="26">
+    <row r="56" spans="2:8">
+      <c r="B56" s="26">
         <v>54</v>
       </c>
-      <c r="B55" s="28">
+      <c r="C56" s="28">
         <v>43943</v>
       </c>
-      <c r="C55" s="27">
+      <c r="D56" s="27">
         <v>603</v>
       </c>
-      <c r="D55" s="27">
+      <c r="E56" s="27">
         <v>54</v>
       </c>
-      <c r="E55" s="27">
+      <c r="F56" s="27">
         <v>0.94243060000000001</v>
       </c>
-      <c r="F55" s="27">
+      <c r="G56" s="27">
         <v>0.91305250000000004</v>
       </c>
-      <c r="G55" s="27">
+      <c r="H56" s="27">
         <v>0.97226749999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="26">
+    <row r="57" spans="2:8">
+      <c r="B57" s="26">
         <v>55</v>
       </c>
-      <c r="B56" s="28">
+      <c r="C57" s="28">
         <v>43944</v>
       </c>
-      <c r="C56" s="27">
+      <c r="D57" s="27">
         <v>371</v>
       </c>
-      <c r="D56" s="27">
+      <c r="E57" s="27">
         <v>55</v>
       </c>
-      <c r="E56" s="27">
+      <c r="F57" s="27">
         <v>0.86616219999999999</v>
       </c>
-      <c r="F56" s="27">
+      <c r="G57" s="27">
         <v>0.83775409999999995</v>
       </c>
-      <c r="G56" s="27">
+      <c r="H57" s="27">
         <v>0.89503730000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="26">
+    <row r="58" spans="2:8">
+      <c r="B58" s="26">
         <v>56</v>
       </c>
-      <c r="B57" s="28">
+      <c r="C58" s="28">
         <v>43945</v>
       </c>
-      <c r="C57" s="27">
+      <c r="D58" s="27">
         <v>444</v>
       </c>
-      <c r="D57" s="27">
+      <c r="E58" s="27">
         <v>56</v>
       </c>
-      <c r="E57" s="27">
+      <c r="F58" s="27">
         <v>0.9482003</v>
       </c>
-      <c r="F57" s="27">
+      <c r="G58" s="27">
         <v>0.91819530000000005</v>
       </c>
-      <c r="G57" s="27">
+      <c r="H58" s="27">
         <v>0.97868089999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="26">
+    <row r="59" spans="2:8">
+      <c r="B59" s="26">
         <v>57</v>
       </c>
-      <c r="B58" s="28">
+      <c r="C59" s="28">
         <v>43946</v>
       </c>
-      <c r="C58" s="27">
+      <c r="D59" s="27">
         <v>474</v>
       </c>
-      <c r="D58" s="27">
+      <c r="E59" s="27">
         <v>57</v>
       </c>
-      <c r="E58" s="27">
+      <c r="F59" s="27">
         <v>0.9212842</v>
       </c>
-      <c r="F58" s="27">
+      <c r="G59" s="27">
         <v>0.89137889999999997</v>
       </c>
-      <c r="G58" s="27">
+      <c r="H59" s="27">
         <v>0.95167590000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="26">
+    <row r="60" spans="2:8">
+      <c r="B60" s="26">
         <v>58</v>
       </c>
-      <c r="B59" s="28">
+      <c r="C60" s="28">
         <v>43947</v>
       </c>
-      <c r="C59" s="27">
+      <c r="D60" s="27">
         <v>412</v>
       </c>
-      <c r="D59" s="27">
+      <c r="E60" s="27">
         <v>58</v>
       </c>
-      <c r="E59" s="27">
+      <c r="F60" s="27">
         <v>0.90700780000000003</v>
       </c>
-      <c r="F59" s="27">
+      <c r="G60" s="27">
         <v>0.877112</v>
       </c>
-      <c r="G59" s="27">
+      <c r="H60" s="27">
         <v>0.93739760000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="26">
+    <row r="61" spans="2:8">
+      <c r="B61" s="26">
         <v>59</v>
       </c>
-      <c r="B60" s="28">
+      <c r="C61" s="28">
         <v>43948</v>
       </c>
-      <c r="C60" s="27">
+      <c r="D61" s="27">
         <v>163</v>
       </c>
-      <c r="D60" s="27">
+      <c r="E61" s="27">
         <v>59</v>
       </c>
-      <c r="E60" s="27">
+      <c r="F61" s="27">
         <v>0.79200369999999998</v>
       </c>
-      <c r="F60" s="27">
+      <c r="G61" s="27">
         <v>0.76383900000000005</v>
       </c>
-      <c r="G60" s="27">
+      <c r="H61" s="27">
         <v>0.82067100000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="26">
+    <row r="62" spans="2:8">
+      <c r="B62" s="26">
         <v>60</v>
       </c>
-      <c r="B61" s="28">
+      <c r="C62" s="28">
         <v>43949</v>
       </c>
-      <c r="C61" s="27">
+      <c r="D62" s="27">
         <v>295</v>
       </c>
-      <c r="D61" s="27">
+      <c r="E62" s="27">
         <v>60</v>
       </c>
-      <c r="E61" s="27">
+      <c r="F62" s="27">
         <v>0.75305089999999997</v>
       </c>
-      <c r="F61" s="27">
+      <c r="G62" s="27">
         <v>0.72523090000000001</v>
       </c>
-      <c r="G61" s="27">
+      <c r="H62" s="27">
         <v>0.7813871</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="26">
+    <row r="63" spans="2:8">
+      <c r="B63" s="26">
         <v>61</v>
       </c>
-      <c r="B62" s="28">
+      <c r="C63" s="28">
         <v>43950</v>
       </c>
-      <c r="C62" s="27">
+      <c r="D63" s="27">
         <v>183</v>
       </c>
-      <c r="D62" s="27">
+      <c r="E63" s="27">
         <v>61</v>
       </c>
-      <c r="E62" s="27">
+      <c r="F63" s="27">
         <v>0.66770560000000001</v>
       </c>
-      <c r="F62" s="27">
+      <c r="G63" s="27">
         <v>0.64094019999999996</v>
       </c>
-      <c r="G62" s="27">
+      <c r="H63" s="27">
         <v>0.69501080000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="26">
+    <row r="64" spans="2:8">
+      <c r="B64" s="26">
         <v>62</v>
       </c>
-      <c r="B63" s="28">
+      <c r="C64" s="28">
         <v>43951</v>
       </c>
-      <c r="C63" s="27">
+      <c r="D64" s="27">
         <v>368</v>
       </c>
-      <c r="D63" s="27">
+      <c r="E64" s="27">
         <v>62</v>
       </c>
-      <c r="E63" s="27">
+      <c r="F64" s="27">
         <v>0.70729640000000005</v>
       </c>
-      <c r="F63" s="27">
+      <c r="G64" s="27">
         <v>0.67892600000000003</v>
       </c>
-      <c r="G63" s="27">
+      <c r="H64" s="27">
         <v>0.73623930000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="26">
+    <row r="65" spans="2:8">
+      <c r="B65" s="26">
         <v>63</v>
       </c>
-      <c r="B64" s="28">
+      <c r="C65" s="28">
         <v>43952</v>
       </c>
-      <c r="C64" s="27">
+      <c r="D65" s="27">
         <v>295</v>
       </c>
-      <c r="D64" s="27">
+      <c r="E65" s="27">
         <v>63</v>
       </c>
-      <c r="E64" s="27">
+      <c r="F65" s="27">
         <v>0.71101570000000003</v>
       </c>
-      <c r="F64" s="27">
+      <c r="G65" s="27">
         <v>0.68155239999999995</v>
       </c>
-      <c r="G64" s="27">
+      <c r="H65" s="27">
         <v>0.74109369999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="26">
+    <row r="66" spans="2:8">
+      <c r="B66" s="26">
         <v>64</v>
       </c>
-      <c r="B65" s="28">
+      <c r="C66" s="28">
         <v>43953</v>
       </c>
-      <c r="C65" s="27">
+      <c r="D66" s="27">
         <v>203</v>
       </c>
-      <c r="D65" s="27">
+      <c r="E66" s="27">
         <v>64</v>
       </c>
-      <c r="E65" s="27">
+      <c r="F66" s="27">
         <v>0.66756660000000001</v>
       </c>
-      <c r="F65" s="27">
+      <c r="G66" s="27">
         <v>0.63803710000000002</v>
       </c>
-      <c r="G65" s="27">
+      <c r="H66" s="27">
         <v>0.6977546</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="26">
+    <row r="67" spans="2:8">
+      <c r="B67" s="26">
         <v>65</v>
       </c>
-      <c r="B66" s="28">
+      <c r="C67" s="28">
         <v>43954</v>
       </c>
-      <c r="C66" s="27">
+      <c r="D67" s="27">
         <v>92</v>
       </c>
-      <c r="D66" s="27">
+      <c r="E67" s="27">
         <v>65</v>
       </c>
-      <c r="E66" s="27">
+      <c r="F67" s="27">
         <v>0.59702350000000004</v>
       </c>
-      <c r="F66" s="27">
+      <c r="G67" s="27">
         <v>0.56812490000000004</v>
       </c>
-      <c r="G66" s="27">
+      <c r="H67" s="27">
         <v>0.62662899999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="26">
+    <row r="68" spans="2:8">
+      <c r="B68" s="26">
         <v>66</v>
       </c>
-      <c r="B67" s="28">
+      <c r="C68" s="28">
         <v>43955</v>
       </c>
-      <c r="C67" s="27">
+      <c r="D68" s="27">
         <v>242</v>
       </c>
-      <c r="D67" s="27">
+      <c r="E68" s="27">
         <v>66</v>
       </c>
-      <c r="E67" s="27">
+      <c r="F68" s="27">
         <v>0.67953739999999996</v>
       </c>
-      <c r="F67" s="27">
+      <c r="G68" s="27">
         <v>0.64741839999999995</v>
       </c>
-      <c r="G67" s="27">
+      <c r="H68" s="27">
         <v>0.71242289999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="26">
+    <row r="69" spans="2:8">
+      <c r="B69" s="26">
         <v>67</v>
       </c>
-      <c r="B68" s="28">
+      <c r="C69" s="28">
         <v>43956</v>
       </c>
-      <c r="C68" s="27">
+      <c r="D69" s="27">
         <v>178</v>
       </c>
-      <c r="D68" s="27">
+      <c r="E69" s="27">
         <v>67</v>
       </c>
-      <c r="E68" s="27">
+      <c r="F69" s="27">
         <v>0.69076349999999997</v>
       </c>
-      <c r="F68" s="27">
+      <c r="G69" s="27">
         <v>0.65692830000000002</v>
       </c>
-      <c r="G68" s="27">
+      <c r="H69" s="27">
         <v>0.72543650000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="26">
+    <row r="70" spans="2:8">
+      <c r="B70" s="26">
         <v>68</v>
       </c>
-      <c r="B69" s="28">
+      <c r="C70" s="28">
         <v>43957</v>
       </c>
-      <c r="C69" s="27">
+      <c r="D70" s="27">
         <v>480</v>
       </c>
-      <c r="D69" s="27">
+      <c r="E70" s="27">
         <v>68</v>
       </c>
-      <c r="E69" s="27">
+      <c r="F70" s="27">
         <v>0.88958570000000003</v>
       </c>
-      <c r="F69" s="27">
+      <c r="G70" s="27">
         <v>0.84960230000000003</v>
       </c>
-      <c r="G69" s="27">
+      <c r="H70" s="27">
         <v>0.93047570000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="26">
+    <row r="71" spans="2:8">
+      <c r="B71" s="26">
         <v>69</v>
       </c>
-      <c r="B70" s="28">
+      <c r="C71" s="28">
         <v>43958</v>
       </c>
-      <c r="C70" s="27">
+      <c r="D71" s="27">
         <v>533</v>
       </c>
-      <c r="D70" s="27">
+      <c r="E71" s="27">
         <v>69</v>
       </c>
-      <c r="E70" s="27">
+      <c r="F71" s="27">
         <v>1.0312437999999999</v>
       </c>
-      <c r="F70" s="27">
+      <c r="G71" s="27">
         <v>0.98680159999999995</v>
       </c>
-      <c r="G70" s="27">
+      <c r="H71" s="27">
         <v>1.0766511000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="26">
+    <row r="72" spans="2:8">
+      <c r="B72" s="26">
         <v>70</v>
       </c>
-      <c r="B71" s="28">
+      <c r="C72" s="28">
         <v>43959</v>
       </c>
-      <c r="C71" s="27">
+      <c r="D72" s="27">
         <v>553</v>
       </c>
-      <c r="D71" s="27">
+      <c r="E72" s="27">
         <v>70</v>
       </c>
-      <c r="E71" s="27">
+      <c r="F72" s="27">
         <v>1.1923334000000001</v>
       </c>
-      <c r="F71" s="27">
+      <c r="G72" s="27">
         <v>1.14391</v>
       </c>
-      <c r="G71" s="27">
+      <c r="H72" s="27">
         <v>1.2417465999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="26">
+    <row r="73" spans="2:8">
+      <c r="B73" s="26">
         <v>71</v>
       </c>
-      <c r="B72" s="28">
+      <c r="C73" s="28">
         <v>43960</v>
       </c>
-      <c r="C72" s="27">
+      <c r="D73" s="27">
         <v>138</v>
       </c>
-      <c r="D72" s="27">
+      <c r="E73" s="27">
         <v>71</v>
       </c>
-      <c r="E72" s="27">
+      <c r="F73" s="27">
         <v>1.1480455000000001</v>
       </c>
-      <c r="F72" s="27">
+      <c r="G73" s="27">
         <v>1.1007492000000001</v>
       </c>
-      <c r="G72" s="27">
+      <c r="H73" s="27">
         <v>1.1963226</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="26">
+    <row r="74" spans="2:8">
+      <c r="B74" s="26">
         <v>72</v>
       </c>
-      <c r="B73" s="28">
+      <c r="C74" s="28">
         <v>43961</v>
       </c>
-      <c r="C73" s="27">
+      <c r="D74" s="27">
         <v>175</v>
       </c>
-      <c r="D73" s="27">
+      <c r="E74" s="27">
         <v>72</v>
       </c>
-      <c r="E73" s="27">
+      <c r="F74" s="27">
         <v>1.1549429</v>
       </c>
-      <c r="F73" s="27">
+      <c r="G74" s="27">
         <v>1.10822</v>
       </c>
-      <c r="G73" s="27">
+      <c r="H74" s="27">
         <v>1.202617</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="26">
+    <row r="75" spans="2:8">
+      <c r="B75" s="26">
         <v>73</v>
       </c>
-      <c r="B74" s="28">
+      <c r="C75" s="28">
         <v>43962</v>
       </c>
-      <c r="C74" s="27">
+      <c r="D75" s="27">
         <v>98</v>
       </c>
-      <c r="D74" s="27">
+      <c r="E75" s="27">
         <v>73</v>
       </c>
-      <c r="E74" s="27">
+      <c r="F75" s="27">
         <v>1.0504647</v>
       </c>
-      <c r="F74" s="27">
+      <c r="G75" s="27">
         <v>1.0065869999999999</v>
       </c>
-      <c r="G74" s="27">
+      <c r="H75" s="27">
         <v>1.0952653999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="26">
+    <row r="76" spans="2:8">
+      <c r="B76" s="26">
         <v>74</v>
       </c>
-      <c r="B75" s="28">
+      <c r="C76" s="28">
         <v>43963</v>
       </c>
-      <c r="C75" s="27">
+      <c r="D76" s="27">
         <v>234</v>
       </c>
-      <c r="D75" s="27">
+      <c r="E76" s="27">
         <v>74</v>
       </c>
-      <c r="E75" s="27">
+      <c r="F76" s="27">
         <v>1.0509371999999999</v>
       </c>
-      <c r="F75" s="27">
+      <c r="G76" s="27">
         <v>1.0075932000000001</v>
       </c>
-      <c r="G75" s="27">
+      <c r="H76" s="27">
         <v>1.0951812999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="26">
+    <row r="77" spans="2:8">
+      <c r="B77" s="26">
         <v>75</v>
       </c>
-      <c r="B76" s="28">
+      <c r="C77" s="28">
         <v>43964</v>
       </c>
-      <c r="C76" s="27">
+      <c r="D77" s="27">
         <v>219</v>
       </c>
-      <c r="D76" s="27">
+      <c r="E77" s="27">
         <v>75</v>
       </c>
-      <c r="E76" s="27">
+      <c r="F77" s="27">
         <v>0.91476979999999997</v>
       </c>
-      <c r="F76" s="27">
+      <c r="G77" s="27">
         <v>0.87462459999999997</v>
       </c>
-      <c r="G76" s="27">
+      <c r="H77" s="27">
         <v>0.95580319999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="26">
+    <row r="78" spans="2:8">
+      <c r="B78" s="26">
         <v>76</v>
       </c>
-      <c r="B77" s="28">
+      <c r="C78" s="28">
         <v>43965</v>
       </c>
-      <c r="C77" s="27">
+      <c r="D78" s="27">
         <v>187</v>
       </c>
-      <c r="D77" s="27">
+      <c r="E78" s="27">
         <v>76</v>
       </c>
-      <c r="E77" s="27">
+      <c r="F78" s="27">
         <v>0.7499363</v>
       </c>
-      <c r="F77" s="27">
+      <c r="G78" s="27">
         <v>0.71369190000000005</v>
       </c>
-      <c r="G77" s="27">
+      <c r="H78" s="27">
         <v>0.78706569999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="26">
+    <row r="79" spans="2:8">
+      <c r="B79" s="26">
         <v>77</v>
       </c>
-      <c r="B78" s="28">
+      <c r="C79" s="28">
         <v>43966</v>
       </c>
-      <c r="C78" s="27">
+      <c r="D79" s="27">
         <v>264</v>
       </c>
-      <c r="D78" s="27">
+      <c r="E79" s="27">
         <v>77</v>
       </c>
-      <c r="E78" s="27">
+      <c r="F79" s="27">
         <v>0.62940050000000003</v>
       </c>
-      <c r="F78" s="27">
+      <c r="G79" s="27">
         <v>0.5958504</v>
       </c>
-      <c r="G78" s="27">
+      <c r="H79" s="27">
         <v>0.66385660000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="26">
+    <row r="80" spans="2:8">
+      <c r="B80" s="26">
         <v>78</v>
       </c>
-      <c r="B79" s="28">
+      <c r="C80" s="28">
         <v>43967</v>
       </c>
-      <c r="C79" s="27">
+      <c r="D80" s="27">
         <v>227</v>
       </c>
-      <c r="D79" s="27">
+      <c r="E80" s="27">
         <v>78</v>
       </c>
-      <c r="E79" s="27">
+      <c r="F80" s="27">
         <v>0.71080679999999996</v>
       </c>
-      <c r="F79" s="27">
+      <c r="G80" s="27">
         <v>0.67412090000000002</v>
       </c>
-      <c r="G79" s="27">
+      <c r="H80" s="27">
         <v>0.74845090000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="26">
+    <row r="81" spans="2:8">
+      <c r="B81" s="26">
         <v>79</v>
       </c>
-      <c r="B80" s="28">
+      <c r="C81" s="28">
         <v>43968</v>
       </c>
-      <c r="C80" s="27">
+      <c r="D81" s="27">
         <v>226</v>
       </c>
-      <c r="D80" s="27">
+      <c r="E81" s="27">
         <v>79</v>
       </c>
-      <c r="E80" s="27">
+      <c r="F81" s="27">
         <v>0.79391610000000001</v>
       </c>
-      <c r="F80" s="27">
+      <c r="G81" s="27">
         <v>0.75365539999999998</v>
       </c>
-      <c r="G80" s="27">
+      <c r="H81" s="27">
         <v>0.83520950000000005</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="26">
+    <row r="82" spans="2:8">
+      <c r="B82" s="26">
         <v>80</v>
       </c>
-      <c r="B81" s="28">
+      <c r="C82" s="28">
         <v>43969</v>
       </c>
-      <c r="C81" s="27">
+      <c r="D82" s="27">
         <v>173</v>
       </c>
-      <c r="D81" s="27">
+      <c r="E82" s="27">
         <v>80</v>
       </c>
-      <c r="E81" s="27">
+      <c r="F82" s="27">
         <v>0.89028799999999997</v>
       </c>
-      <c r="F81" s="27">
+      <c r="G82" s="27">
         <v>0.84624580000000005</v>
       </c>
-      <c r="G81" s="27">
+      <c r="H82" s="27">
         <v>0.93543169999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="26">
+    <row r="83" spans="2:8">
+      <c r="B83" s="26">
         <v>81</v>
       </c>
-      <c r="B82" s="28">
+      <c r="C83" s="28">
         <v>43970</v>
       </c>
-      <c r="C82" s="27">
+      <c r="D83" s="27">
         <v>223</v>
       </c>
-      <c r="D82" s="27">
+      <c r="E83" s="27">
         <v>81</v>
       </c>
-      <c r="E82" s="27">
+      <c r="F83" s="27">
         <v>0.92489980000000005</v>
       </c>
-      <c r="F82" s="27">
+      <c r="G83" s="27">
         <v>0.87898220000000005</v>
       </c>
-      <c r="G82" s="27">
+      <c r="H83" s="27">
         <v>0.97197</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="26">
+    <row r="84" spans="2:8">
+      <c r="B84" s="26">
         <v>82</v>
       </c>
-      <c r="B83" s="28">
+      <c r="C84" s="28">
         <v>43971</v>
       </c>
-      <c r="C83" s="27">
+      <c r="D84" s="27">
         <v>228</v>
       </c>
-      <c r="D83" s="27">
+      <c r="E84" s="27">
         <v>82</v>
       </c>
-      <c r="E83" s="27">
+      <c r="F84" s="27">
         <v>0.95596510000000001</v>
       </c>
-      <c r="F83" s="27">
+      <c r="G84" s="27">
         <v>0.90864339999999999</v>
       </c>
-      <c r="G83" s="27">
+      <c r="H84" s="27">
         <v>1.0044712</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="26">
+    <row r="85" spans="2:8">
+      <c r="B85" s="26">
         <v>83</v>
       </c>
-      <c r="B84" s="28">
+      <c r="C85" s="28">
         <v>43972</v>
       </c>
-      <c r="C84" s="27">
+      <c r="D85" s="27">
         <v>252</v>
       </c>
-      <c r="D84" s="27">
+      <c r="E85" s="27">
         <v>83</v>
       </c>
-      <c r="E84" s="27">
+      <c r="F85" s="27">
         <v>1.0139355000000001</v>
       </c>
-      <c r="F84" s="27">
+      <c r="G85" s="27">
         <v>0.96476530000000005</v>
       </c>
-      <c r="G84" s="27">
+      <c r="H85" s="27">
         <v>1.0643104999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="26">
+    <row r="86" spans="2:8">
+      <c r="B86" s="26">
         <v>84</v>
       </c>
-      <c r="B85" s="28">
+      <c r="C86" s="28">
         <v>43973</v>
       </c>
-      <c r="C85" s="27">
+      <c r="D86" s="27">
         <v>288</v>
       </c>
-      <c r="D85" s="27">
+      <c r="E86" s="27">
         <v>84</v>
       </c>
-      <c r="E85" s="27">
+      <c r="F86" s="27">
         <v>1.0376337</v>
       </c>
-      <c r="F85" s="27">
+      <c r="G86" s="27">
         <v>0.98768440000000002</v>
       </c>
-      <c r="G85" s="27">
+      <c r="H86" s="27">
         <v>1.0887979000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="26">
+        <v>85</v>
+      </c>
+      <c r="C87" s="28">
+        <v>43974</v>
+      </c>
+      <c r="D87" s="27">
+        <v>271</v>
+      </c>
+      <c r="E87" s="27">
+        <v>85</v>
+      </c>
+      <c r="F87" s="27">
+        <v>1.0639276</v>
+      </c>
+      <c r="G87" s="27">
+        <v>1.0133867000000001</v>
+      </c>
+      <c r="H87" s="27">
+        <v>1.1156811</v>
       </c>
     </row>
   </sheetData>
@@ -47092,372 +47301,434 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FF9CBF-3B7F-E849-AB37-B8718B4961F9}">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="3" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="12" max="12" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:6" ht="23" thickBot="1">
+      <c r="B1" s="71"/>
+    </row>
+    <row r="2" spans="1:6" ht="27" thickBot="1">
+      <c r="B2" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="101" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="19">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72" t="s">
+      <c r="D2" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19">
+      <c r="A3" s="93" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="19">
-      <c r="A3" s="73" t="s">
+      <c r="B3" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="C3" s="66" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="19">
-      <c r="A4" s="73" t="s">
+      <c r="D3" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="94"/>
+      <c r="B4" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="53">
+        <f>(242-252)/242</f>
+        <v>-4.1322314049586778E-2</v>
+      </c>
+      <c r="E4" s="53">
+        <f>+(247-242)/247</f>
+        <v>2.0242914979757085E-2</v>
+      </c>
+      <c r="F4" s="53">
+        <f>(257-247)/257</f>
+        <v>3.8910505836575876E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" thickBot="1">
+      <c r="A5" s="94"/>
+      <c r="B5" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="74">
+        <v>-10</v>
+      </c>
+      <c r="E5" s="74">
+        <v>5</v>
+      </c>
+      <c r="F5" s="74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" thickBot="1">
+      <c r="A6" s="91"/>
+      <c r="B6" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="C6" s="103" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="19">
-      <c r="A5" s="73" t="s">
+      <c r="D6" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" thickBot="1">
+      <c r="A7" s="94"/>
+      <c r="B7" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="C7" s="63" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="19">
-      <c r="A6" s="73" t="s">
+      <c r="D7" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="94"/>
+      <c r="B8" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0</v>
+      </c>
+      <c r="E8" s="51">
+        <v>0</v>
+      </c>
+      <c r="F8" s="51">
+        <f>+(1.1-1)/1.1</f>
+        <v>9.0909090909090981E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" thickBot="1">
+      <c r="A9" s="94"/>
+      <c r="B9" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" thickBot="1">
+      <c r="A10" s="94"/>
+      <c r="B10" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="C10" s="69" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="19">
-      <c r="A7" s="73" t="s">
+      <c r="D10" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" thickBot="1">
+      <c r="A11" s="92"/>
+      <c r="B11" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="C11" s="100" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="22">
-      <c r="A10" s="71" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19">
-      <c r="A12" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19">
-      <c r="A13" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19">
-      <c r="A14" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19">
-      <c r="A15" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="22">
-      <c r="A16" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="73" t="s">
+      <c r="D11" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="71"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" s="25"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" s="25"/>
-    </row>
-    <row r="19" spans="1:2" ht="22">
-      <c r="A19" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="25"/>
-    </row>
-    <row r="20" spans="1:2" ht="19">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="19">
-      <c r="A21" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="19">
-      <c r="A22" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="19">
-      <c r="A23" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="19">
-      <c r="A24" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="19">
-      <c r="A25" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="73" t="s">
+      <c r="E11" s="100" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="B26" s="25"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="25"/>
-    </row>
-    <row r="28" spans="1:2" ht="22">
-      <c r="A28" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="25"/>
-    </row>
-    <row r="29" spans="1:2" ht="19">
-      <c r="A29" s="72"/>
-      <c r="B29" s="72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="19">
-      <c r="A30" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="73" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="19">
-      <c r="A31" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="19">
-      <c r="A32" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="73" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="19">
-      <c r="A33" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="19">
-      <c r="A34" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="25"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" s="25"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" s="25"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" s="25"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="B39" s="25"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" s="25"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="B41" s="25"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="B42" s="25"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="B43" s="25"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="B44" s="25"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="B45" s="25"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" s="25"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="B47" s="25"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="B48" s="25"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="25"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="25"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="25"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="25"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="25"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="25"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="25"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="25"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="25"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="25"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="25"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="25"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="25"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="25"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="25"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="25"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="25"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="25"/>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="25"/>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="25"/>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="25"/>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="25"/>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="25"/>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="25"/>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="25"/>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="25"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="25"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="25"/>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="25"/>
-    </row>
-    <row r="82" spans="11:11" ht="45">
-      <c r="K82" s="77"/>
+      <c r="F11" s="100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19">
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+    </row>
+    <row r="16" spans="1:6" ht="19">
+      <c r="B16" s="73"/>
+    </row>
+    <row r="17" spans="2:11" ht="19">
+      <c r="B17" s="73"/>
+    </row>
+    <row r="18" spans="2:11" ht="19">
+      <c r="B18" s="73"/>
+    </row>
+    <row r="19" spans="2:11" ht="19">
+      <c r="B19" s="73"/>
+    </row>
+    <row r="20" spans="2:11" ht="22">
+      <c r="B20" s="73"/>
+      <c r="K20" s="71"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="2:11" ht="19">
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+    </row>
+    <row r="25" spans="2:11" ht="19">
+      <c r="B25" s="73"/>
+    </row>
+    <row r="26" spans="2:11" ht="19">
+      <c r="B26" s="73"/>
+    </row>
+    <row r="27" spans="2:11" ht="19">
+      <c r="B27" s="73"/>
+    </row>
+    <row r="28" spans="2:11" ht="19">
+      <c r="B28" s="73"/>
+    </row>
+    <row r="29" spans="2:11" ht="19">
+      <c r="B29" s="73"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="2:11" ht="22">
+      <c r="B32" s="71"/>
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="2:3" ht="19">
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+    </row>
+    <row r="34" spans="2:3" ht="19">
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+    </row>
+    <row r="35" spans="2:3" ht="19">
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+    </row>
+    <row r="36" spans="2:3" ht="19">
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+    </row>
+    <row r="37" spans="2:3" ht="19">
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+    </row>
+    <row r="38" spans="2:3" ht="19">
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" s="25"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="2:3" ht="19">
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+    </row>
+    <row r="44" spans="2:3" ht="19">
+      <c r="B44" s="73"/>
+    </row>
+    <row r="45" spans="2:3" ht="19">
+      <c r="B45" s="73"/>
+    </row>
+    <row r="46" spans="2:3" ht="19">
+      <c r="B46" s="73"/>
+    </row>
+    <row r="47" spans="2:3" ht="19">
+      <c r="B47" s="73"/>
+    </row>
+    <row r="48" spans="2:3" ht="19">
+      <c r="B48" s="73"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="25"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="25"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="25"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="25"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="25"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="25"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="25"/>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="25"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="25"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="25"/>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="25"/>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="25"/>
+    </row>
+    <row r="81" spans="3:12">
+      <c r="C81" s="25"/>
+    </row>
+    <row r="82" spans="3:12">
+      <c r="C82" s="25"/>
+    </row>
+    <row r="87" spans="3:12" ht="45">
+      <c r="L87" s="77"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
